--- a/AAII_Financials/Quarterly/CUEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CUEN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>CUEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,138 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
+        <v>200</v>
+      </c>
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>13200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>20600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>20900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>20000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>52100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1100</v>
-      </c>
-      <c r="N8" s="3">
-        <v>500</v>
-      </c>
-      <c r="O8" s="3">
-        <v>400</v>
       </c>
       <c r="P8" s="3">
         <v>500</v>
       </c>
       <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="R8" s="3">
+        <v>500</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -797,87 +810,99 @@
         <v>200</v>
       </c>
       <c r="G9" s="3">
+        <v>200</v>
+      </c>
+      <c r="H9" s="3">
+        <v>200</v>
+      </c>
+      <c r="I9" s="3">
         <v>13800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>20500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>20700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>19300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>50100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>400</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
       </c>
       <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
         <v>-600</v>
       </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2000</v>
       </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-100</v>
       </c>
-      <c r="P10" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,13 +1022,19 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1013,54 +1052,60 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>1300</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-2200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>2700</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1083,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>800</v>
+      </c>
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>16700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>21600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>21500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>20000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>53200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-3500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-2900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1277,116 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>2300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>2300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-3500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>2000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-3200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-3400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1315,93 +1394,105 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
-      </c>
-      <c r="I22" s="3">
-        <v>300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>400</v>
       </c>
       <c r="K22" s="3">
         <v>300</v>
       </c>
       <c r="L22" s="3">
+        <v>400</v>
+      </c>
+      <c r="M22" s="3">
+        <v>300</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>600</v>
-      </c>
-      <c r="N22" s="3">
-        <v>400</v>
-      </c>
-      <c r="O22" s="3">
-        <v>300</v>
       </c>
       <c r="P22" s="3">
         <v>400</v>
       </c>
       <c r="Q22" s="3">
+        <v>300</v>
+      </c>
+      <c r="R22" s="3">
+        <v>400</v>
+      </c>
+      <c r="S22" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-3700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-3800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-3600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1414,8 +1505,8 @@
       <c r="F24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>8</v>
@@ -1423,18 +1514,18 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-1100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1447,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-3700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-3800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-3600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-3700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-3800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-3100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1649,11 +1770,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1662,28 +1783,34 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3">
         <v>-300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-1600</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1909,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="E32" s="3">
+        <v>500</v>
+      </c>
+      <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-2300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>100</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-2300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-3700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-4200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-4700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-3700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-4200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-4700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,37 +2225,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
@@ -2093,16 +2266,22 @@
         <v>100</v>
       </c>
       <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2113,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>100</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>100</v>
+      </c>
+      <c r="I42" s="3">
+        <v>100</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -2130,15 +2309,15 @@
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="3">
         <v>600</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2148,8 +2327,14 @@
       <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2157,46 +2342,52 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>3700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>4400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>5000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>6100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>7800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
-        <v>100</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,13 +2433,19 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -2266,36 +2463,42 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
-        <v>100</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>200</v>
@@ -2304,40 +2507,46 @@
         <v>300</v>
       </c>
       <c r="G46" s="3">
+        <v>200</v>
+      </c>
+      <c r="H46" s="3">
+        <v>300</v>
+      </c>
+      <c r="I46" s="3">
         <v>4000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>4500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>5100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>6700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>7900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2350,41 +2559,47 @@
       <c r="F47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>100</v>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>100</v>
+      </c>
+      <c r="K47" s="3">
         <v>200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>300</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
+      <c r="N47" s="3">
+        <v>0</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P47" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R47" s="3">
+        <v>100</v>
+      </c>
+      <c r="S47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2412,11 +2627,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>8</v>
@@ -2424,47 +2639,53 @@
       <c r="O48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P48" s="3">
-        <v>100</v>
+      <c r="P48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>100</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>8600</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
       </c>
       <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
         <v>1900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>3900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>4100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>4200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>4300</v>
       </c>
-      <c r="L49" s="3">
-        <v>100</v>
-      </c>
-      <c r="M49" s="3">
-        <v>100</v>
-      </c>
       <c r="N49" s="3">
         <v>100</v>
       </c>
@@ -2472,13 +2693,19 @@
         <v>100</v>
       </c>
       <c r="P49" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>100</v>
+      </c>
+      <c r="R49" s="3">
         <v>4000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>300</v>
+        <v>8700</v>
       </c>
       <c r="E54" s="3">
-        <v>200</v>
+        <v>9200</v>
       </c>
       <c r="F54" s="3">
         <v>300</v>
       </c>
       <c r="G54" s="3">
+        <v>200</v>
+      </c>
+      <c r="H54" s="3">
+        <v>300</v>
+      </c>
+      <c r="I54" s="3">
         <v>6000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>8600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>9400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>11200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>12500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +3009,63 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>3500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>5900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>6700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>7500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2806,140 +3073,158 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F58" s="3">
+        <v>100</v>
+      </c>
+      <c r="G58" s="3">
+        <v>100</v>
+      </c>
+      <c r="H58" s="3">
         <v>3100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>5000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>5800</v>
-      </c>
-      <c r="I58" s="3">
-        <v>3200</v>
-      </c>
-      <c r="J58" s="3">
-        <v>3100</v>
       </c>
       <c r="K58" s="3">
         <v>3200</v>
       </c>
       <c r="L58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N58" s="3">
         <v>4400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>4300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>4300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>4600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>4500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>4400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F60" s="3">
         <v>3200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>11600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>12500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>11100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>11900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>15000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>8000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>9600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>8100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>10300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>9000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2956,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2965,13 +3250,13 @@
         <v>100</v>
       </c>
       <c r="K61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -2985,13 +3270,19 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -3000,26 +3291,26 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>800</v>
       </c>
-      <c r="H62" s="3">
-        <v>100</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
+        <v>100</v>
+      </c>
+      <c r="K62" s="3">
         <v>2600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2500</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3032,8 +3323,14 @@
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F66" s="3">
         <v>2500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>11800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>12000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>13100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>13900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>17000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>7400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>9000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>7500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>7200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>6400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-17200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-16500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-18400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-18100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-14400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-14000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-13000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-14200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-13400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-15100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-12700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-13500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-4600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-5800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-3400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-3700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-4600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-6400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-8700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-7200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-6500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-3700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-4200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-4700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,13 +4222,15 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -3842,10 +4239,10 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -3854,7 +4251,7 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
@@ -3863,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -3874,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-500</v>
       </c>
       <c r="G89" s="3">
         <v>-300</v>
       </c>
       <c r="H89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>100</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>100</v>
+      </c>
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4189,11 +4630,11 @@
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -4201,11 +4642,11 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
@@ -4222,8 +4663,14 @@
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,13 +4769,19 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4343,13 +4802,13 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -4363,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +5055,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E100" s="3">
         <v>200</v>
       </c>
       <c r="F100" s="3">
+        <v>300</v>
+      </c>
+      <c r="G100" s="3">
+        <v>200</v>
+      </c>
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +5161,14 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4673,42 +5176,48 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CUEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CUEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>CUEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -751,52 +755,55 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
         <v>200</v>
       </c>
       <c r="G8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H8" s="3">
         <v>300</v>
       </c>
       <c r="I8" s="3">
+        <v>300</v>
+      </c>
+      <c r="J8" s="3">
         <v>13200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>20600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>52100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>500</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -816,40 +823,43 @@
         <v>200</v>
       </c>
       <c r="I9" s="3">
+        <v>200</v>
+      </c>
+      <c r="J9" s="3">
         <v>13800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>20500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>20700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>19300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>50100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>400</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -857,10 +867,10 @@
         <v>-100</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
         <v>100</v>
@@ -869,40 +879,43 @@
         <v>100</v>
       </c>
       <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
         <v>-600</v>
       </c>
-      <c r="J10" s="3">
-        <v>100</v>
-      </c>
       <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2000</v>
       </c>
-      <c r="N10" s="3">
-        <v>100</v>
-      </c>
       <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-100</v>
       </c>
-      <c r="R10" s="3">
-        <v>100</v>
-      </c>
       <c r="S10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,16 +1045,19 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1058,39 +1078,42 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1300</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2700</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>500</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
+      <c r="E15" s="3">
+        <v>500</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>8</v>
@@ -1107,8 +1130,8 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E17" s="3">
         <v>2700</v>
-      </c>
-      <c r="E17" s="3">
-        <v>800</v>
       </c>
       <c r="F17" s="3">
         <v>800</v>
       </c>
       <c r="G17" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H17" s="3">
         <v>700</v>
       </c>
       <c r="I17" s="3">
+        <v>700</v>
+      </c>
+      <c r="J17" s="3">
         <v>16700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>21600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>21500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>20000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>53200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2600</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-600</v>
       </c>
       <c r="F18" s="3">
         <v>-600</v>
       </c>
       <c r="G18" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="H18" s="3">
         <v>-400</v>
       </c>
       <c r="I18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J18" s="3">
         <v>-3500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,105 +1434,111 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>1000</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2200</v>
+        <v>-1200</v>
       </c>
       <c r="E23" s="3">
         <v>-2200</v>
       </c>
       <c r="F23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1511,24 +1557,24 @@
       <c r="H24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="I24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-1100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2200</v>
+        <v>-1200</v>
       </c>
       <c r="E26" s="3">
         <v>-2200</v>
       </c>
       <c r="F26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2200</v>
+        <v>-1200</v>
       </c>
       <c r="E27" s="3">
         <v>-2200</v>
       </c>
       <c r="F27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1776,8 +1837,8 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1789,28 +1850,31 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-300</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O29" s="3">
-        <v>-300</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3">
         <v>-300</v>
       </c>
       <c r="Q29" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R29" s="3">
         <v>-1600</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
-        <v>100</v>
-      </c>
       <c r="G32" s="3">
+        <v>100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-2300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>100</v>
-      </c>
       <c r="J32" s="3">
+        <v>100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2200</v>
+        <v>-1200</v>
       </c>
       <c r="E33" s="3">
         <v>-2200</v>
       </c>
       <c r="F33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2200</v>
+        <v>-1200</v>
       </c>
       <c r="E35" s="3">
         <v>-2200</v>
       </c>
       <c r="F35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2239,19 +2326,19 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>200</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -2260,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
@@ -2272,16 +2359,19 @@
         <v>100</v>
       </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
       <c r="S41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2298,13 +2388,13 @@
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
         <v>100</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
+      <c r="J42" s="3">
+        <v>100</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -2315,12 +2405,12 @@
       <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="3">
         <v>600</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2348,46 +2441,49 @@
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>3700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
-        <v>100</v>
-      </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
       <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,16 +2535,19 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -2469,13 +2568,13 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3">
-        <v>100</v>
-      </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2484,16 +2583,19 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2501,52 +2603,55 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>800</v>
-      </c>
-      <c r="O46" s="3">
-        <v>200</v>
       </c>
       <c r="P46" s="3">
         <v>200</v>
       </c>
       <c r="Q46" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="R46" s="3">
         <v>600</v>
       </c>
       <c r="S46" s="3">
+        <v>600</v>
+      </c>
+      <c r="T46" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2565,26 +2670,26 @@
       <c r="H47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
+        <v>100</v>
+      </c>
+      <c r="L47" s="3">
         <v>200</v>
-      </c>
-      <c r="L47" s="3">
-        <v>300</v>
       </c>
       <c r="M47" s="3">
         <v>300</v>
       </c>
       <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
+        <v>300</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
@@ -2592,14 +2697,17 @@
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R47" s="3">
-        <v>100</v>
+      <c r="R47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2633,8 +2741,8 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>8</v>
@@ -2645,26 +2753,29 @@
       <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R48" s="3">
-        <v>100</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S48" s="3">
+        <v>100</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E49" s="3">
         <v>8600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>9000</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
       <c r="G49" s="3">
         <v>0</v>
       </c>
@@ -2672,23 +2783,23 @@
         <v>0</v>
       </c>
       <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
         <v>1900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4300</v>
       </c>
-      <c r="N49" s="3">
-        <v>100</v>
-      </c>
       <c r="O49" s="3">
         <v>100</v>
       </c>
@@ -2699,13 +2810,16 @@
         <v>100</v>
       </c>
       <c r="R49" s="3">
+        <v>100</v>
+      </c>
+      <c r="S49" s="3">
         <v>4000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E54" s="3">
         <v>8700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,220 +3141,233 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1600</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1500</v>
       </c>
       <c r="F57" s="3">
         <v>1500</v>
       </c>
       <c r="G57" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="H57" s="3">
         <v>1400</v>
       </c>
       <c r="I57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J57" s="3">
         <v>3200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E58" s="3">
+        <v>100</v>
+      </c>
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
-        <v>100</v>
-      </c>
       <c r="G58" s="3">
         <v>100</v>
       </c>
       <c r="H58" s="3">
+        <v>100</v>
+      </c>
+      <c r="I58" s="3">
         <v>3100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4400</v>
-      </c>
-      <c r="O58" s="3">
-        <v>4300</v>
       </c>
       <c r="P58" s="3">
         <v>4300</v>
       </c>
       <c r="Q58" s="3">
+        <v>4300</v>
+      </c>
+      <c r="R58" s="3">
         <v>4600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3100</v>
-      </c>
-      <c r="K59" s="3">
-        <v>2000</v>
       </c>
       <c r="L59" s="3">
         <v>2000</v>
       </c>
       <c r="M59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N59" s="3">
         <v>4300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E60" s="3">
         <v>3000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3247,19 +3390,19 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>100</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -3276,16 +3419,19 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -3297,23 +3443,23 @@
         <v>0</v>
       </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>800</v>
       </c>
-      <c r="J62" s="3">
-        <v>100</v>
-      </c>
       <c r="K62" s="3">
-        <v>2600</v>
+        <v>100</v>
       </c>
       <c r="L62" s="3">
         <v>2600</v>
       </c>
       <c r="M62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N62" s="3">
         <v>2500</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E66" s="3">
         <v>2400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-21600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-19400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-17200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-16500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-18400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-18100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-14400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-14000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-14200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-15100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-13500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-8500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E76" s="3">
         <v>6300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-5800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-6400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-8700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-6500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2200</v>
+        <v>-1200</v>
       </c>
       <c r="E81" s="3">
         <v>-2200</v>
       </c>
       <c r="F81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4233,7 +4432,7 @@
         <v>500</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -4245,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -4257,13 +4456,13 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-300</v>
       </c>
       <c r="G89" s="3">
         <v>-300</v>
       </c>
       <c r="H89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4636,8 +4857,8 @@
       <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -4648,8 +4869,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,16 +5002,19 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -4808,10 +5038,10 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-100</v>
       </c>
       <c r="P100" s="3">
         <v>-100</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5182,42 +5434,45 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CUEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CUEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>CUEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -758,52 +762,55 @@
         <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>200</v>
       </c>
       <c r="H8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I8" s="3">
         <v>300</v>
       </c>
       <c r="J8" s="3">
+        <v>300</v>
+      </c>
+      <c r="K8" s="3">
         <v>13200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>20000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>52100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>500</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -826,40 +833,43 @@
         <v>200</v>
       </c>
       <c r="J9" s="3">
+        <v>200</v>
+      </c>
+      <c r="K9" s="3">
         <v>13800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>20500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>20700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>19300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>50100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>400</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -870,10 +880,10 @@
         <v>-100</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>100</v>
@@ -882,40 +892,43 @@
         <v>100</v>
       </c>
       <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
         <v>-600</v>
       </c>
-      <c r="K10" s="3">
-        <v>100</v>
-      </c>
       <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2000</v>
       </c>
-      <c r="O10" s="3">
-        <v>100</v>
-      </c>
       <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-100</v>
       </c>
-      <c r="S10" s="3">
-        <v>100</v>
-      </c>
       <c r="T10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1079,8 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1081,31 +1101,34 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1300</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-2200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2700</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1115,8 +1138,8 @@
       <c r="E15" s="3">
         <v>500</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
+      <c r="F15" s="3">
+        <v>500</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
@@ -1133,8 +1156,8 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="3">
         <v>1400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2700</v>
-      </c>
-      <c r="F17" s="3">
-        <v>800</v>
       </c>
       <c r="G17" s="3">
         <v>800</v>
       </c>
       <c r="H17" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I17" s="3">
         <v>700</v>
       </c>
       <c r="J17" s="3">
+        <v>700</v>
+      </c>
+      <c r="K17" s="3">
         <v>16700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>21600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>20000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>53200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2600</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-600</v>
       </c>
       <c r="G18" s="3">
         <v>-600</v>
       </c>
       <c r="H18" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="I18" s="3">
         <v>-400</v>
       </c>
       <c r="J18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-3500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,111 +1356,117 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>1900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1437,108 +1477,114 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>1000</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
       <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-2200</v>
       </c>
       <c r="F23" s="3">
         <v>-2200</v>
       </c>
       <c r="G23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1560,24 +1606,24 @@
       <c r="I24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-1100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1200</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-2200</v>
       </c>
       <c r="F26" s="3">
         <v>-2200</v>
       </c>
       <c r="G26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1200</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-2200</v>
       </c>
       <c r="F27" s="3">
         <v>-2200</v>
       </c>
       <c r="G27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1840,8 +1901,8 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1853,28 +1914,31 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-300</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="3">
-        <v>-300</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3">
         <v>-300</v>
       </c>
       <c r="R29" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S29" s="3">
         <v>-1600</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,111 +2064,117 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
-        <v>100</v>
-      </c>
       <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-2300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>100</v>
-      </c>
       <c r="K32" s="3">
+        <v>100</v>
+      </c>
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-1900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-2200</v>
       </c>
       <c r="F33" s="3">
         <v>-2200</v>
       </c>
       <c r="G33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-2200</v>
       </c>
       <c r="F35" s="3">
         <v>-2200</v>
       </c>
       <c r="G35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,13 +2400,14 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2329,19 +2416,19 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>200</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -2350,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
@@ -2362,16 +2449,19 @@
         <v>100</v>
       </c>
       <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
-        <v>100</v>
-      </c>
       <c r="T41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2391,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
         <v>100</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
+      <c r="K42" s="3">
+        <v>100</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>8</v>
@@ -2408,12 +2498,12 @@
       <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P42" s="3">
         <v>600</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2426,8 +2516,11 @@
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2444,46 +2537,49 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>3700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
-        <v>100</v>
-      </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
         <v>300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,19 +2634,22 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -2571,13 +2670,13 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
         <v>500</v>
       </c>
-      <c r="N45" s="3">
-        <v>100</v>
-      </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2586,113 +2685,119 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
       </c>
       <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>800</v>
-      </c>
-      <c r="P46" s="3">
-        <v>200</v>
       </c>
       <c r="Q46" s="3">
         <v>200</v>
       </c>
       <c r="R46" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="S46" s="3">
         <v>600</v>
       </c>
       <c r="T46" s="3">
+        <v>600</v>
+      </c>
+      <c r="U46" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L47" s="3">
+        <v>100</v>
+      </c>
+      <c r="M47" s="3">
         <v>200</v>
-      </c>
-      <c r="M47" s="3">
-        <v>300</v>
       </c>
       <c r="N47" s="3">
         <v>300</v>
       </c>
       <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
+        <v>300</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>8</v>
@@ -2700,14 +2805,17 @@
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S47" s="3">
-        <v>100</v>
+      <c r="S47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2744,8 +2852,8 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>8</v>
@@ -2756,29 +2864,32 @@
       <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S48" s="3">
-        <v>100</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T48" s="3">
+        <v>100</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E49" s="3">
         <v>8100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>8600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>9000</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
       <c r="H49" s="3">
         <v>0</v>
       </c>
@@ -2786,23 +2897,23 @@
         <v>0</v>
       </c>
       <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
         <v>1900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4300</v>
       </c>
-      <c r="O49" s="3">
-        <v>100</v>
-      </c>
       <c r="P49" s="3">
         <v>100</v>
       </c>
@@ -2813,13 +2924,16 @@
         <v>100</v>
       </c>
       <c r="S49" s="3">
+        <v>100</v>
+      </c>
+      <c r="T49" s="3">
         <v>4000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E54" s="3">
         <v>8200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,237 +3272,250 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1600</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1500</v>
       </c>
       <c r="G57" s="3">
         <v>1500</v>
       </c>
       <c r="H57" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="I57" s="3">
         <v>1400</v>
       </c>
       <c r="J57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K57" s="3">
         <v>3200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
-        <v>100</v>
-      </c>
       <c r="F58" s="3">
+        <v>100</v>
+      </c>
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
-        <v>100</v>
-      </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
       <c r="I58" s="3">
+        <v>100</v>
+      </c>
+      <c r="J58" s="3">
         <v>3100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4400</v>
-      </c>
-      <c r="P58" s="3">
-        <v>4300</v>
       </c>
       <c r="Q58" s="3">
         <v>4300</v>
       </c>
       <c r="R58" s="3">
+        <v>4300</v>
+      </c>
+      <c r="S58" s="3">
         <v>4600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3100</v>
-      </c>
-      <c r="L59" s="3">
-        <v>2000</v>
       </c>
       <c r="M59" s="3">
         <v>2000</v>
       </c>
       <c r="N59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O59" s="3">
         <v>4300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E60" s="3">
         <v>3600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3393,19 +3536,19 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>100</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -3422,19 +3565,22 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>100</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="3">
+        <v>100</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -3446,23 +3592,23 @@
         <v>0</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>800</v>
       </c>
-      <c r="K62" s="3">
-        <v>100</v>
-      </c>
       <c r="L62" s="3">
-        <v>2600</v>
+        <v>100</v>
       </c>
       <c r="M62" s="3">
         <v>2600</v>
       </c>
       <c r="N62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O62" s="3">
         <v>2500</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E66" s="3">
         <v>3100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-22800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-21600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-19400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-17200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-16500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-18400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-18100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-14400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-14200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-15100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-13500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-8500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E76" s="3">
         <v>5100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-5800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-6400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-7200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-6500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-2200</v>
       </c>
       <c r="F81" s="3">
         <v>-2200</v>
       </c>
       <c r="G81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4435,7 +4634,7 @@
         <v>500</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -4447,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -4459,13 +4658,13 @@
         <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-300</v>
       </c>
       <c r="H89" s="3">
         <v>-300</v>
       </c>
       <c r="I89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>100</v>
+      </c>
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4860,8 +5081,8 @@
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4872,8 +5093,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5016,8 +5246,8 @@
       <c r="E94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -5041,10 +5271,10 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>700</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
         <v>100</v>
       </c>
       <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-100</v>
       </c>
       <c r="Q100" s="3">
         <v>-100</v>
       </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,13 +5668,16 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -5437,42 +5689,45 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CUEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CUEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>CUEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,98 +665,101 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
@@ -765,57 +768,60 @@
         <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>200</v>
       </c>
       <c r="I8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J8" s="3">
         <v>300</v>
       </c>
       <c r="K8" s="3">
+        <v>300</v>
+      </c>
+      <c r="L8" s="3">
         <v>13200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>20900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>20000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>52100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>500</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>200</v>
@@ -836,45 +842,48 @@
         <v>200</v>
       </c>
       <c r="K9" s="3">
+        <v>200</v>
+      </c>
+      <c r="L9" s="3">
         <v>13800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>20500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>20700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>19300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>50100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>400</v>
       </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>-100</v>
@@ -883,10 +892,10 @@
         <v>-100</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>100</v>
@@ -895,40 +904,43 @@
         <v>100</v>
       </c>
       <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
         <v>-600</v>
       </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
       <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2000</v>
       </c>
-      <c r="P10" s="3">
-        <v>100</v>
-      </c>
       <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-100</v>
       </c>
-      <c r="T10" s="3">
-        <v>100</v>
-      </c>
       <c r="U10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1101,8 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1104,31 +1123,34 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1300</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-2200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2700</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1141,8 +1163,8 @@
       <c r="F15" s="3">
         <v>500</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
+      <c r="G15" s="3">
+        <v>500</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -1159,8 +1181,8 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2700</v>
-      </c>
-      <c r="G17" s="3">
-        <v>800</v>
       </c>
       <c r="H17" s="3">
         <v>800</v>
       </c>
       <c r="I17" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J17" s="3">
         <v>700</v>
       </c>
       <c r="K17" s="3">
+        <v>700</v>
+      </c>
+      <c r="L17" s="3">
         <v>16700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>21500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>20000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>53200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2600</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-600</v>
       </c>
       <c r="H18" s="3">
         <v>-600</v>
       </c>
       <c r="I18" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="J18" s="3">
         <v>-400</v>
       </c>
       <c r="K18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L18" s="3">
         <v>-3500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,131 +1379,138 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>1900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>-700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1480,111 +1519,117 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>1000</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
       <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-2200</v>
       </c>
       <c r="G23" s="3">
         <v>-2200</v>
       </c>
       <c r="H23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1609,24 +1654,24 @@
       <c r="J24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-1100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -1642,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-2200</v>
       </c>
       <c r="G26" s="3">
         <v>-2200</v>
       </c>
       <c r="H26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-2200</v>
       </c>
       <c r="G27" s="3">
         <v>-2200</v>
       </c>
       <c r="H27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1904,8 +1964,8 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1917,28 +1977,31 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-300</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>-300</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3">
         <v>-300</v>
       </c>
       <c r="S29" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T29" s="3">
         <v>-1600</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
-        <v>100</v>
-      </c>
       <c r="I32" s="3">
+        <v>100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-2300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>100</v>
-      </c>
       <c r="L32" s="3">
+        <v>100</v>
+      </c>
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-1900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-2200</v>
       </c>
       <c r="G33" s="3">
         <v>-2200</v>
       </c>
       <c r="H33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-2200</v>
       </c>
       <c r="G35" s="3">
         <v>-2200</v>
       </c>
       <c r="H35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,17 +2486,18 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
@@ -2419,19 +2505,19 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>200</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -2440,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
@@ -2452,16 +2538,19 @@
         <v>100</v>
       </c>
       <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="T41" s="3">
-        <v>100</v>
-      </c>
       <c r="U41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2484,13 +2573,13 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K42" s="3">
         <v>100</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
+      <c r="L42" s="3">
+        <v>100</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>8</v>
@@ -2501,12 +2590,12 @@
       <c r="O42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q42" s="3">
         <v>600</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2519,8 +2608,11 @@
       <c r="U42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2540,46 +2632,49 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>3700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
-        <v>100</v>
-      </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
       <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
         <v>300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,22 +2732,25 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -2673,13 +2771,13 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>500</v>
       </c>
-      <c r="O45" s="3">
-        <v>100</v>
-      </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2688,75 +2786,81 @@
         <v>0</v>
       </c>
       <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
         <v>300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
-        <v>100</v>
-      </c>
       <c r="F46" s="3">
         <v>100</v>
       </c>
       <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>800</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>200</v>
       </c>
       <c r="R46" s="3">
         <v>200</v>
       </c>
       <c r="S46" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="T46" s="3">
         <v>600</v>
       </c>
       <c r="U46" s="3">
+        <v>600</v>
+      </c>
+      <c r="V46" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2785,22 +2889,22 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
+        <v>100</v>
+      </c>
+      <c r="N47" s="3">
         <v>200</v>
-      </c>
-      <c r="N47" s="3">
-        <v>300</v>
       </c>
       <c r="O47" s="3">
         <v>300</v>
       </c>
       <c r="P47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
+        <v>300</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>8</v>
@@ -2808,14 +2912,17 @@
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T47" s="3">
-        <v>100</v>
+      <c r="T47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2855,8 +2962,8 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
+      <c r="P48" s="3">
+        <v>0</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>8</v>
@@ -2867,32 +2974,35 @@
       <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T48" s="3">
-        <v>100</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U48" s="3">
+        <v>100</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E49" s="3">
         <v>7700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>8100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>8600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>9000</v>
       </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
       <c r="I49" s="3">
         <v>0</v>
       </c>
@@ -2900,23 +3010,23 @@
         <v>0</v>
       </c>
       <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
         <v>1900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4300</v>
       </c>
-      <c r="P49" s="3">
-        <v>100</v>
-      </c>
       <c r="Q49" s="3">
         <v>100</v>
       </c>
@@ -2927,13 +3037,16 @@
         <v>100</v>
       </c>
       <c r="T49" s="3">
+        <v>100</v>
+      </c>
+      <c r="U49" s="3">
         <v>4000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E54" s="3">
         <v>8100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,244 +3402,257 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1600</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1500</v>
       </c>
       <c r="H57" s="3">
         <v>1500</v>
       </c>
       <c r="I57" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="J57" s="3">
         <v>1400</v>
       </c>
       <c r="K57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L57" s="3">
         <v>3200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E58" s="3">
         <v>900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
-        <v>100</v>
-      </c>
       <c r="G58" s="3">
+        <v>100</v>
+      </c>
+      <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3">
-        <v>100</v>
-      </c>
       <c r="I58" s="3">
         <v>100</v>
       </c>
       <c r="J58" s="3">
+        <v>100</v>
+      </c>
+      <c r="K58" s="3">
         <v>3100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4400</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>4300</v>
       </c>
       <c r="R58" s="3">
         <v>4300</v>
       </c>
       <c r="S58" s="3">
+        <v>4300</v>
+      </c>
+      <c r="T58" s="3">
         <v>4600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3100</v>
-      </c>
-      <c r="M59" s="3">
-        <v>2000</v>
       </c>
       <c r="N59" s="3">
         <v>2000</v>
       </c>
       <c r="O59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P59" s="3">
         <v>4300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E60" s="3">
         <v>4300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3518,7 +3660,7 @@
         <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3539,19 +3681,19 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>100</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -3568,22 +3710,25 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="3">
-        <v>100</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="3">
+        <v>100</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -3595,23 +3740,23 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>800</v>
       </c>
-      <c r="L62" s="3">
-        <v>100</v>
-      </c>
       <c r="M62" s="3">
-        <v>2600</v>
+        <v>100</v>
       </c>
       <c r="N62" s="3">
         <v>2600</v>
       </c>
       <c r="O62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P62" s="3">
         <v>2500</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3627,8 +3772,11 @@
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E66" s="3">
         <v>4300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-27500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-24500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-22800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-21600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-19400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-17200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-16500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-18400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-18100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-14000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-14200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-15100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-12700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-13500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-8500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>900</v>
+      </c>
+      <c r="E76" s="3">
         <v>3700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-8700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-7200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-6500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-2200</v>
       </c>
       <c r="G81" s="3">
         <v>-2200</v>
       </c>
       <c r="H81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4637,7 +4835,7 @@
         <v>500</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -4649,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
@@ -4661,13 +4859,13 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4681,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4985,58 +5201,61 @@
         <v>-400</v>
       </c>
       <c r="E89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-300</v>
       </c>
       <c r="I89" s="3">
         <v>-300</v>
       </c>
       <c r="J89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
       <c r="T89" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,34 +5277,35 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5096,8 +5316,8 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
@@ -5117,8 +5337,11 @@
       <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,19 +5461,22 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -5274,10 +5503,10 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -5294,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
       <c r="M100" s="3">
         <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>-100</v>
       </c>
       <c r="R100" s="3">
         <v>-100</v>
       </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,17 +5919,20 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -5692,42 +5943,45 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CUEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CUEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>CUEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,7 +766,7 @@
         <v>200</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
@@ -771,60 +775,63 @@
         <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>200</v>
       </c>
       <c r="J8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K8" s="3">
         <v>300</v>
       </c>
       <c r="L8" s="3">
+        <v>300</v>
+      </c>
+      <c r="M8" s="3">
         <v>13200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>20600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>20900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>20000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>52100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>500</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>200</v>
@@ -845,48 +852,51 @@
         <v>200</v>
       </c>
       <c r="L9" s="3">
+        <v>200</v>
+      </c>
+      <c r="M9" s="3">
         <v>13800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>20500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>20700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>19300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>50100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>400</v>
       </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
         <v>-100</v>
@@ -895,10 +905,10 @@
         <v>-100</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>100</v>
@@ -907,40 +917,43 @@
         <v>100</v>
       </c>
       <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
         <v>-600</v>
       </c>
-      <c r="M10" s="3">
-        <v>100</v>
-      </c>
       <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2000</v>
       </c>
-      <c r="Q10" s="3">
-        <v>100</v>
-      </c>
       <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
         <v>300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-100</v>
       </c>
-      <c r="U10" s="3">
-        <v>100</v>
-      </c>
       <c r="V10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1124,8 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1126,31 +1146,34 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1300</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>-2200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2700</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1166,8 +1189,8 @@
       <c r="G15" s="3">
         <v>500</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
+      <c r="H15" s="3">
+        <v>500</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
@@ -1184,8 +1207,8 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>1800</v>
       </c>
       <c r="E17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2700</v>
-      </c>
-      <c r="H17" s="3">
-        <v>800</v>
       </c>
       <c r="I17" s="3">
         <v>800</v>
       </c>
       <c r="J17" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K17" s="3">
         <v>700</v>
       </c>
       <c r="L17" s="3">
+        <v>700</v>
+      </c>
+      <c r="M17" s="3">
         <v>16700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>21600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>21500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>20000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>53200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-1600</v>
       </c>
       <c r="E18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2600</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-600</v>
       </c>
       <c r="I18" s="3">
         <v>-600</v>
       </c>
       <c r="J18" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="K18" s="3">
         <v>-400</v>
       </c>
       <c r="L18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M18" s="3">
         <v>-3500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,13 +1413,14 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1395,125 +1429,131 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>1900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-1100</v>
       </c>
       <c r="E21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-3400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1522,159 +1562,165 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>1000</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
+      <c r="D23" s="3">
+        <v>-1700</v>
       </c>
       <c r="E23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-2200</v>
       </c>
       <c r="H23" s="3">
         <v>-2200</v>
       </c>
       <c r="I23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>8</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-1700</v>
       </c>
       <c r="E26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-2200</v>
       </c>
       <c r="H26" s="3">
         <v>-2200</v>
       </c>
       <c r="I26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-1700</v>
       </c>
       <c r="E27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-2200</v>
       </c>
       <c r="H27" s="3">
         <v>-2200</v>
       </c>
       <c r="I27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,37 +1996,40 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1980,28 +2041,31 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-300</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R29" s="3">
-        <v>-300</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3">
         <v>-300</v>
       </c>
       <c r="T29" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U29" s="3">
         <v>-1600</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,13 +2191,16 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2139,117 +2209,123 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
-        <v>100</v>
-      </c>
       <c r="J32" s="3">
+        <v>100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
-        <v>100</v>
-      </c>
       <c r="M32" s="3">
+        <v>100</v>
+      </c>
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-1900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-1700</v>
       </c>
       <c r="E33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-2200</v>
       </c>
       <c r="H33" s="3">
         <v>-2200</v>
       </c>
       <c r="I33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-1700</v>
       </c>
       <c r="E35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-2200</v>
       </c>
       <c r="H35" s="3">
         <v>-2200</v>
       </c>
       <c r="I35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,20 +2573,21 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -2508,19 +2595,19 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>200</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -2529,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
@@ -2541,21 +2628,24 @@
         <v>100</v>
       </c>
       <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
         <v>300</v>
       </c>
-      <c r="U41" s="3">
-        <v>100</v>
-      </c>
       <c r="V41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -2576,13 +2666,13 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L42" s="3">
         <v>100</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
+      <c r="M42" s="3">
+        <v>100</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>8</v>
@@ -2593,12 +2683,12 @@
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R42" s="3">
         <v>600</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2611,13 +2701,16 @@
       <c r="V42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -2635,46 +2728,49 @@
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>3700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
-        <v>100</v>
-      </c>
       <c r="S43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
       </c>
       <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
         <v>300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,25 +2831,28 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -2774,13 +2873,13 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
         <v>500</v>
       </c>
-      <c r="P45" s="3">
-        <v>100</v>
-      </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2789,78 +2888,84 @@
         <v>0</v>
       </c>
       <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
         <v>300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
-        <v>100</v>
-      </c>
       <c r="G46" s="3">
         <v>100</v>
       </c>
       <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>800</v>
-      </c>
-      <c r="R46" s="3">
-        <v>200</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
       </c>
       <c r="T46" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="U46" s="3">
         <v>600</v>
       </c>
       <c r="V46" s="3">
+        <v>600</v>
+      </c>
+      <c r="W46" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2892,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N47" s="3">
+        <v>100</v>
+      </c>
+      <c r="O47" s="3">
         <v>200</v>
-      </c>
-      <c r="O47" s="3">
-        <v>300</v>
       </c>
       <c r="P47" s="3">
         <v>300</v>
       </c>
       <c r="Q47" s="3">
-        <v>0</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
+        <v>300</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>8</v>
@@ -2915,14 +3020,17 @@
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="3">
-        <v>100</v>
+      <c r="U47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2965,8 +3073,8 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>8</v>
+      <c r="Q48" s="3">
+        <v>0</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>8</v>
@@ -2977,35 +3085,38 @@
       <c r="T48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U48" s="3">
-        <v>100</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V48" s="3">
+        <v>100</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E49" s="3">
         <v>7200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>8100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>8600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>9000</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
       <c r="J49" s="3">
         <v>0</v>
       </c>
@@ -3013,23 +3124,23 @@
         <v>0</v>
       </c>
       <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
         <v>1900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4300</v>
       </c>
-      <c r="Q49" s="3">
-        <v>100</v>
-      </c>
       <c r="R49" s="3">
         <v>100</v>
       </c>
@@ -3040,13 +3151,16 @@
         <v>100</v>
       </c>
       <c r="U49" s="3">
+        <v>100</v>
+      </c>
+      <c r="V49" s="3">
         <v>4000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E54" s="3">
         <v>7500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,256 +3533,269 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
         <v>2400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1600</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1500</v>
       </c>
       <c r="I57" s="3">
         <v>1500</v>
       </c>
       <c r="J57" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K57" s="3">
         <v>1400</v>
       </c>
       <c r="L57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M57" s="3">
         <v>3200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
         <v>1200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
-        <v>100</v>
-      </c>
       <c r="H58" s="3">
+        <v>100</v>
+      </c>
+      <c r="I58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
-        <v>100</v>
-      </c>
       <c r="J58" s="3">
         <v>100</v>
       </c>
       <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
         <v>3100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4400</v>
-      </c>
-      <c r="R58" s="3">
-        <v>4300</v>
       </c>
       <c r="S58" s="3">
         <v>4300</v>
       </c>
       <c r="T58" s="3">
+        <v>4300</v>
+      </c>
+      <c r="U58" s="3">
         <v>4600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
         <v>2900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3100</v>
-      </c>
-      <c r="N59" s="3">
-        <v>2000</v>
       </c>
       <c r="O59" s="3">
         <v>2000</v>
       </c>
       <c r="P59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q59" s="3">
         <v>4300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E60" s="3">
         <v>6500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>15000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>10300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3663,7 +3806,7 @@
         <v>100</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -3684,19 +3827,19 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>100</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3724,14 +3870,14 @@
       <c r="E62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="3">
-        <v>100</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3">
+        <v>100</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
@@ -3743,23 +3889,23 @@
         <v>0</v>
       </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>800</v>
       </c>
-      <c r="M62" s="3">
-        <v>100</v>
-      </c>
       <c r="N62" s="3">
-        <v>2600</v>
+        <v>100</v>
       </c>
       <c r="O62" s="3">
         <v>2600</v>
       </c>
       <c r="P62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Q62" s="3">
         <v>2500</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E66" s="3">
         <v>6600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-27500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-24500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-22800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-21600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-19400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-17200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-16500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-18400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-18100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-14400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-14000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-14200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-13400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-15100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-12700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-13500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-8500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E76" s="3">
         <v>900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-5800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-6400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-8700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-7200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-6500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-1700</v>
       </c>
       <c r="E81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-2200</v>
       </c>
       <c r="H81" s="3">
         <v>-2200</v>
       </c>
       <c r="I81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4838,7 +5037,7 @@
         <v>500</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -4850,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
@@ -4862,13 +5061,13 @@
         <v>100</v>
       </c>
       <c r="P83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-400</v>
+        <v>-3400</v>
       </c>
       <c r="E89" s="3">
         <v>-400</v>
       </c>
       <c r="F89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-300</v>
       </c>
       <c r="J89" s="3">
         <v>-300</v>
       </c>
       <c r="K89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>100</v>
+      </c>
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
       <c r="U89" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="V89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5304,11 +5525,11 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -5319,8 +5540,8 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>8</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,25 +5691,28 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -5506,10 +5736,10 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
       <c r="N100" s="3">
         <v>100</v>
       </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
-      </c>
-      <c r="R100" s="3">
-        <v>-100</v>
       </c>
       <c r="S100" s="3">
         <v>-100</v>
       </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,20 +6171,23 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -5946,42 +6198,45 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>100</v>
-      </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CUEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CUEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>CUEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,193 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
       </c>
       <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>13200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>20600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>20900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>20000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>52100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1100</v>
-      </c>
-      <c r="T8" s="3">
-        <v>500</v>
-      </c>
-      <c r="U8" s="3">
-        <v>400</v>
       </c>
       <c r="V8" s="3">
         <v>500</v>
       </c>
       <c r="W8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="X8" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
         <v>200</v>
       </c>
       <c r="G9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>200</v>
@@ -855,40 +869,46 @@
         <v>200</v>
       </c>
       <c r="M9" s="3">
+        <v>200</v>
+      </c>
+      <c r="N9" s="3">
+        <v>200</v>
+      </c>
+      <c r="O9" s="3">
         <v>13800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>20500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>20700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>19300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>50100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>400</v>
       </c>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -896,64 +916,70 @@
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
         <v>-100</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>100</v>
       </c>
       <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
         <v>-600</v>
       </c>
-      <c r="N10" s="3">
-        <v>100</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>2000</v>
       </c>
-      <c r="R10" s="3">
-        <v>100</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
+        <v>100</v>
+      </c>
+      <c r="U10" s="3">
         <v>300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>-100</v>
       </c>
-      <c r="V10" s="3">
-        <v>100</v>
-      </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +1003,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1070,14 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,25 +1141,31 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1149,31 +1189,37 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>1300</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>-2200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>2700</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1192,11 +1238,11 @@
       <c r="H15" s="3">
         <v>500</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
+      <c r="I15" s="3">
+        <v>500</v>
+      </c>
+      <c r="J15" s="3">
+        <v>500</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1210,11 +1256,11 @@
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1237,8 +1283,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1311,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F17" s="3">
         <v>1800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>3000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>16700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>21600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>21500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>20000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>53200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>3300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-2800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-3500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-1100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-1400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-2900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-1800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,268 +1480,294 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>2300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>1900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>2300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-1800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>1200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-2400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-3500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>2000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>1900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-3200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-1000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-3400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
-        <v>100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>1000</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
-      </c>
-      <c r="O22" s="3">
-        <v>300</v>
-      </c>
-      <c r="P22" s="3">
-        <v>400</v>
       </c>
       <c r="Q22" s="3">
         <v>300</v>
       </c>
       <c r="R22" s="3">
+        <v>400</v>
+      </c>
+      <c r="S22" s="3">
+        <v>300</v>
+      </c>
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>600</v>
-      </c>
-      <c r="T22" s="3">
-        <v>400</v>
-      </c>
-      <c r="U22" s="3">
-        <v>300</v>
       </c>
       <c r="V22" s="3">
         <v>400</v>
       </c>
       <c r="W22" s="3">
+        <v>300</v>
+      </c>
+      <c r="X22" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y22" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-3700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>1700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-3800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-3600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-1000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1700,14 +1792,14 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>8</v>
@@ -1715,18 +1807,18 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-1100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
@@ -1739,8 +1831,14 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1902,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-3700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-3800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-1400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-3600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-1000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-3700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-3800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-1400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-3100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2115,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2025,17 +2147,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -2044,28 +2166,34 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
-        <v>-300</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3">
         <v>-300</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>-300</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W29" s="3">
         <v>-1600</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2328,156 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
-        <v>100</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>100</v>
+      </c>
+      <c r="M32" s="3">
         <v>-2300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
-        <v>100</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
+        <v>100</v>
+      </c>
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-2300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>1800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-1200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-3700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-4200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-1700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-4700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2541,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-3700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-4200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-1700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-4700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,55 +2746,57 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F41" s="3">
         <v>6500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>100</v>
@@ -2631,27 +2805,33 @@
         <v>100</v>
       </c>
       <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
         <v>300</v>
       </c>
-      <c r="V41" s="3">
-        <v>100</v>
-      </c>
-      <c r="W41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -2669,16 +2849,16 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M42" s="3">
-        <v>100</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>100</v>
+      </c>
+      <c r="O42" s="3">
+        <v>100</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>8</v>
@@ -2686,15 +2866,15 @@
       <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T42" s="3">
         <v>600</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2704,8 +2884,14 @@
       <c r="W42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2713,10 +2899,10 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -2731,46 +2917,52 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>3700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>4400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>5000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>6100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>7800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="S43" s="3">
-        <v>100</v>
-      </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
       <c r="U43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
         <v>300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,31 +3026,37 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>300</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3">
-        <v>100</v>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -2876,54 +3074,60 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
         <v>500</v>
       </c>
-      <c r="Q45" s="3">
-        <v>100</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
       <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
         <v>300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F46" s="3">
         <v>6700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
-        <v>100</v>
-      </c>
-      <c r="H46" s="3">
-        <v>100</v>
-      </c>
       <c r="I46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
@@ -2932,40 +3136,46 @@
         <v>300</v>
       </c>
       <c r="M46" s="3">
+        <v>200</v>
+      </c>
+      <c r="N46" s="3">
+        <v>300</v>
+      </c>
+      <c r="O46" s="3">
         <v>4000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>5100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>6700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>7900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3000,37 +3210,43 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q47" s="3">
         <v>200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>300</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
+      <c r="T47" s="3">
+        <v>0</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V47" s="3">
-        <v>100</v>
-      </c>
-      <c r="W47" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X47" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3076,11 +3292,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>8</v>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>8</v>
@@ -3088,65 +3304,71 @@
       <c r="U48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V48" s="3">
-        <v>100</v>
+      <c r="V48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F49" s="3">
         <v>6800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>7200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>7700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>8100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>8600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>9000</v>
       </c>
-      <c r="J49" s="3">
-        <v>0</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
       <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
         <v>1900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>3900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>4100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>4200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>4300</v>
       </c>
-      <c r="R49" s="3">
-        <v>100</v>
-      </c>
-      <c r="S49" s="3">
-        <v>100</v>
-      </c>
       <c r="T49" s="3">
         <v>100</v>
       </c>
@@ -3154,13 +3376,19 @@
         <v>100</v>
       </c>
       <c r="V49" s="3">
+        <v>100</v>
+      </c>
+      <c r="W49" s="3">
+        <v>100</v>
+      </c>
+      <c r="X49" s="3">
         <v>4000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3523,14 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3594,14 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3665,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>12900</v>
+      </c>
+      <c r="F54" s="3">
         <v>13500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>7500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>8100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>8200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>8700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>9200</v>
-      </c>
-      <c r="J54" s="3">
-        <v>300</v>
-      </c>
-      <c r="K54" s="3">
-        <v>200</v>
       </c>
       <c r="L54" s="3">
         <v>300</v>
       </c>
       <c r="M54" s="3">
+        <v>200</v>
+      </c>
+      <c r="N54" s="3">
+        <v>300</v>
+      </c>
+      <c r="O54" s="3">
         <v>6000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>8600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>9400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>11200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>12500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>4800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,268 +3794,294 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>3500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>5900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>6700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>7500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>2900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>100</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
-        <v>100</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
+        <v>100</v>
+      </c>
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
-        <v>100</v>
-      </c>
-      <c r="K58" s="3">
-        <v>100</v>
-      </c>
       <c r="L58" s="3">
+        <v>100</v>
+      </c>
+      <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
         <v>3100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>5000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>5800</v>
-      </c>
-      <c r="O58" s="3">
-        <v>3200</v>
-      </c>
-      <c r="P58" s="3">
-        <v>3100</v>
       </c>
       <c r="Q58" s="3">
         <v>3200</v>
       </c>
       <c r="R58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="S58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="T58" s="3">
         <v>4400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>4300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>4300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>4600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>4500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2900</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1400</v>
       </c>
       <c r="H59" s="3">
         <v>1300</v>
       </c>
       <c r="I59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K59" s="3">
         <v>2000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>4300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>3700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>4400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F60" s="3">
         <v>3200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>6500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>11600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>12500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>11100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>11900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>15000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>8000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>9600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>8100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>10300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>9000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3809,10 +4095,10 @@
         <v>100</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -3830,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -3839,13 +4125,13 @@
         <v>100</v>
       </c>
       <c r="Q61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
@@ -3859,8 +4145,14 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3873,17 +4165,17 @@
       <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="3">
-        <v>100</v>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3892,26 +4184,26 @@
         <v>0</v>
       </c>
       <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
         <v>800</v>
       </c>
-      <c r="N62" s="3">
-        <v>100</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q62" s="3">
         <v>2600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>2600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>2500</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3924,8 +4216,14 @@
       <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4429,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F66" s="3">
         <v>3300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>11800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>12000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>13100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>13900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>17000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>7400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>9000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>7500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>7200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>6400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4811,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-29200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-27500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-24500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-22800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-21600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-19400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-17200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-16500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-18400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-18100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-14400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-14000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-14200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-13400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-15100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-12700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-13500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-8500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +5095,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F76" s="3">
         <v>10200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>3700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>5100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>6300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>5900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-4600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-5800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-3400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-3700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-4600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-6400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-8700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-7200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-6500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-1600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5237,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-3700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-4200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-1700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-4700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5415,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5040,10 +5438,10 @@
         <v>500</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -5052,10 +5450,10 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O83" s="3">
         <v>100</v>
@@ -5064,7 +5462,7 @@
         <v>100</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R83" s="3">
         <v>100</v>
@@ -5073,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="T83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
@@ -5084,8 +5482,14 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5837,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-3400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-500</v>
       </c>
       <c r="M89" s="3">
         <v>-300</v>
       </c>
       <c r="N89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>100</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>100</v>
+      </c>
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5939,10 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5528,14 +5970,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -5543,11 +5985,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>8</v>
@@ -5564,8 +6006,14 @@
       <c r="W91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,19 +6148,25 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>8</v>
@@ -5714,11 +6174,11 @@
       <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -5739,13 +6199,13 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
       <c r="S94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -5759,8 +6219,14 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6250,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6317,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,19 +6530,25 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F100" s="3">
         <v>9700</v>
-      </c>
-      <c r="E100" s="3">
-        <v>300</v>
-      </c>
-      <c r="F100" s="3">
-        <v>700</v>
       </c>
       <c r="G100" s="3">
         <v>300</v>
@@ -6065,52 +6557,58 @@
         <v>700</v>
       </c>
       <c r="I100" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J100" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K100" s="3">
         <v>200</v>
       </c>
       <c r="L100" s="3">
+        <v>300</v>
+      </c>
+      <c r="M100" s="3">
+        <v>200</v>
+      </c>
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
-        <v>100</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,26 +6672,32 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
         <v>6300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -6201,42 +6705,48 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
-        <v>100</v>
-      </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>100</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CUEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CUEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>CUEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,111 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -774,7 +777,7 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
         <v>200</v>
@@ -783,7 +786,7 @@
         <v>200</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
@@ -792,52 +795,55 @@
         <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>200</v>
       </c>
       <c r="M8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N8" s="3">
         <v>300</v>
       </c>
       <c r="O8" s="3">
+        <v>300</v>
+      </c>
+      <c r="P8" s="3">
         <v>13200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>20600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>20900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>20000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>52100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>500</v>
       </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -845,16 +851,16 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3">
-        <v>100</v>
-      </c>
       <c r="H9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>200</v>
@@ -875,40 +881,43 @@
         <v>200</v>
       </c>
       <c r="O9" s="3">
+        <v>200</v>
+      </c>
+      <c r="P9" s="3">
         <v>13800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>20500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>20700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>19300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>50100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>400</v>
       </c>
-      <c r="Y9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -916,16 +925,16 @@
         <v>0</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
         <v>-100</v>
@@ -934,10 +943,10 @@
         <v>-100</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
         <v>100</v>
@@ -946,40 +955,43 @@
         <v>100</v>
       </c>
       <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
         <v>-600</v>
       </c>
-      <c r="P10" s="3">
-        <v>100</v>
-      </c>
       <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2000</v>
       </c>
-      <c r="T10" s="3">
-        <v>100</v>
-      </c>
       <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
         <v>300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-100</v>
       </c>
-      <c r="X10" s="3">
-        <v>100</v>
-      </c>
       <c r="Y10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,31 +1214,34 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1300</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>-2200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2700</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1244,8 +1266,8 @@
       <c r="J15" s="3">
         <v>500</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
+      <c r="K15" s="3">
+        <v>500</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
@@ -1262,8 +1284,8 @@
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1289,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E17" s="3">
         <v>2500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2700</v>
-      </c>
-      <c r="K17" s="3">
-        <v>800</v>
       </c>
       <c r="L17" s="3">
         <v>800</v>
       </c>
       <c r="M17" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N17" s="3">
         <v>700</v>
       </c>
       <c r="O17" s="3">
+        <v>700</v>
+      </c>
+      <c r="P17" s="3">
         <v>16700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>21600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>21500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>20000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>53200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2600</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-600</v>
       </c>
       <c r="L18" s="3">
         <v>-600</v>
       </c>
       <c r="M18" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="N18" s="3">
         <v>-400</v>
       </c>
       <c r="O18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P18" s="3">
         <v>-3500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-1100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1491,13 +1524,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>100</v>
-      </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1506,143 +1539,149 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>1900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-3200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-3400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
-        <v>100</v>
-      </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1651,123 +1690,129 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>1000</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
       </c>
       <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-2200</v>
       </c>
       <c r="K23" s="3">
         <v>-2200</v>
       </c>
       <c r="L23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-3600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1798,30 +1843,30 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>8</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-1100</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
@@ -1837,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-2200</v>
       </c>
       <c r="K26" s="3">
         <v>-2200</v>
       </c>
       <c r="L26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-3800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-3600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-2200</v>
       </c>
       <c r="K27" s="3">
         <v>-2200</v>
       </c>
       <c r="L27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-3800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-3100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2153,14 +2213,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -2172,28 +2232,31 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-300</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U29" s="3">
-        <v>-300</v>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V29" s="3">
         <v>-300</v>
       </c>
       <c r="W29" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X29" s="3">
         <v>-1600</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2343,14 +2412,14 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2358,126 +2427,132 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
-        <v>100</v>
-      </c>
       <c r="M32" s="3">
+        <v>100</v>
+      </c>
+      <c r="N32" s="3">
         <v>-2300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
-        <v>100</v>
-      </c>
       <c r="P32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-1900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-2200</v>
       </c>
       <c r="K33" s="3">
         <v>-2200</v>
       </c>
       <c r="L33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-4200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-4700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-2200</v>
       </c>
       <c r="K35" s="3">
         <v>-2200</v>
       </c>
       <c r="L35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-4200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-4700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,29 +2833,30 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E41" s="3">
         <v>8800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2778,19 +2864,19 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>200</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -2799,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
         <v>100</v>
@@ -2811,16 +2897,19 @@
         <v>100</v>
       </c>
       <c r="W41" s="3">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
         <v>300</v>
       </c>
-      <c r="X41" s="3">
-        <v>100</v>
-      </c>
       <c r="Y41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2831,10 +2920,10 @@
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -2855,13 +2944,13 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O42" s="3">
         <v>100</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>8</v>
+      <c r="P42" s="3">
+        <v>100</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>8</v>
@@ -2872,12 +2961,12 @@
       <c r="S42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U42" s="3">
         <v>600</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2890,8 +2979,11 @@
       <c r="Y42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2905,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
@@ -2923,46 +3015,49 @@
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>3700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>200</v>
       </c>
-      <c r="U43" s="3">
-        <v>100</v>
-      </c>
       <c r="V43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
       </c>
       <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
         <v>300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,34 +3127,37 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
       </c>
       <c r="F45" s="3">
+        <v>300</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -3080,13 +3178,13 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
         <v>500</v>
       </c>
-      <c r="S45" s="3">
-        <v>100</v>
-      </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -3095,87 +3193,93 @@
         <v>0</v>
       </c>
       <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
         <v>300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E46" s="3">
         <v>9100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
-        <v>100</v>
-      </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>800</v>
-      </c>
-      <c r="U46" s="3">
-        <v>200</v>
       </c>
       <c r="V46" s="3">
         <v>200</v>
       </c>
       <c r="W46" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="X46" s="3">
         <v>600</v>
       </c>
       <c r="Y46" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z46" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3216,22 +3320,22 @@
         <v>0</v>
       </c>
       <c r="P47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="3">
+        <v>100</v>
+      </c>
+      <c r="R47" s="3">
         <v>200</v>
-      </c>
-      <c r="R47" s="3">
-        <v>300</v>
       </c>
       <c r="S47" s="3">
         <v>300</v>
       </c>
       <c r="T47" s="3">
-        <v>0</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>8</v>
+        <v>300</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>8</v>
@@ -3239,14 +3343,17 @@
       <c r="W47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X47" s="3">
-        <v>100</v>
+      <c r="X47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3298,8 +3405,8 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
+      <c r="T48" s="3">
+        <v>0</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>8</v>
@@ -3310,44 +3417,47 @@
       <c r="W48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X48" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E49" s="3">
         <v>5900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>8100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>8600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9000</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
@@ -3355,23 +3465,23 @@
         <v>0</v>
       </c>
       <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
         <v>1900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4300</v>
       </c>
-      <c r="T49" s="3">
-        <v>100</v>
-      </c>
       <c r="U49" s="3">
         <v>100</v>
       </c>
@@ -3382,13 +3492,16 @@
         <v>100</v>
       </c>
       <c r="X49" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y49" s="3">
         <v>4000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3600,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E54" s="3">
         <v>15000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>11200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,79 +3925,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1500</v>
       </c>
       <c r="L57" s="3">
         <v>1500</v>
       </c>
       <c r="M57" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="N57" s="3">
         <v>1400</v>
       </c>
       <c r="O57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P57" s="3">
         <v>3200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3879,209 +4012,218 @@
         <v>100</v>
       </c>
       <c r="F58" s="3">
+        <v>100</v>
+      </c>
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3">
-        <v>100</v>
-      </c>
       <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
-        <v>100</v>
-      </c>
       <c r="M58" s="3">
         <v>100</v>
       </c>
       <c r="N58" s="3">
+        <v>100</v>
+      </c>
+      <c r="O58" s="3">
         <v>3100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4400</v>
-      </c>
-      <c r="U58" s="3">
-        <v>4300</v>
       </c>
       <c r="V58" s="3">
         <v>4300</v>
       </c>
       <c r="W58" s="3">
+        <v>4300</v>
+      </c>
+      <c r="X58" s="3">
         <v>4600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3100</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>2000</v>
       </c>
       <c r="R59" s="3">
         <v>2000</v>
       </c>
       <c r="S59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T59" s="3">
         <v>4300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E60" s="3">
         <v>3000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>15000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>10300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>9000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4101,7 +4243,7 @@
         <v>100</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4122,19 +4264,19 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>100</v>
       </c>
       <c r="T61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U61" s="3">
         <v>0</v>
@@ -4151,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4171,14 +4316,14 @@
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I62" s="3">
-        <v>100</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3">
+        <v>100</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -4190,23 +4335,23 @@
         <v>0</v>
       </c>
       <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
         <v>800</v>
       </c>
-      <c r="P62" s="3">
-        <v>100</v>
-      </c>
       <c r="Q62" s="3">
-        <v>2600</v>
+        <v>100</v>
       </c>
       <c r="R62" s="3">
         <v>2600</v>
       </c>
       <c r="S62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="T62" s="3">
         <v>2500</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4222,8 +4367,11 @@
       <c r="Y62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E66" s="3">
         <v>3100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>17000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-33600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-31200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-29200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-27500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-24500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-22800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-21600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-19400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-17200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-16500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-18400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-18100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-14400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-14000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-13000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-14200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-13400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-15100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-12700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-13500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-8500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E76" s="3">
         <v>11900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-5800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-4600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-6400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-8700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-7200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-6500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-2200</v>
       </c>
       <c r="K81" s="3">
         <v>-2200</v>
       </c>
       <c r="L81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-4200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-4700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5444,7 +5642,7 @@
         <v>500</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -5456,7 +5654,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
@@ -5468,13 +5666,13 @@
         <v>100</v>
       </c>
       <c r="S83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
@@ -5488,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3400</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-400</v>
       </c>
       <c r="H89" s="3">
         <v>-400</v>
       </c>
       <c r="I89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-300</v>
       </c>
       <c r="M89" s="3">
         <v>-300</v>
       </c>
       <c r="N89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
+        <v>100</v>
+      </c>
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
         <v>0</v>
       </c>
       <c r="X89" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="Y89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5976,11 +6196,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -5991,8 +6211,8 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>8</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>8</v>
@@ -6012,8 +6232,11 @@
       <c r="Y91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6168,8 +6397,8 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>8</v>
@@ -6180,8 +6409,8 @@
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -6205,10 +6434,10 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -6225,8 +6454,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +6778,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>5000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>9700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
       <c r="Q100" s="3">
         <v>100</v>
       </c>
       <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>300</v>
-      </c>
-      <c r="U100" s="3">
-        <v>-100</v>
       </c>
       <c r="V100" s="3">
         <v>-100</v>
       </c>
       <c r="W100" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="X100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,29 +6926,32 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E102" s="3">
         <v>2500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -6711,42 +6962,45 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
-        <v>100</v>
-      </c>
       <c r="X102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CUEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CUEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>CUEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,208 +665,222 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>200</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K8" s="3">
         <v>100</v>
       </c>
       <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>13200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>20600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>20900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>20000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>52100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1100</v>
-      </c>
-      <c r="W8" s="3">
-        <v>500</v>
-      </c>
-      <c r="X8" s="3">
-        <v>400</v>
       </c>
       <c r="Y8" s="3">
         <v>500</v>
       </c>
       <c r="Z8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>200</v>
       </c>
       <c r="J9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>200</v>
@@ -884,114 +898,126 @@
         <v>200</v>
       </c>
       <c r="P9" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>200</v>
+      </c>
+      <c r="R9" s="3">
         <v>13800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>20500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>20700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>19300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>50100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>400</v>
       </c>
-      <c r="Z9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
       <c r="I10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>-100</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
         <v>100</v>
       </c>
       <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
         <v>-600</v>
       </c>
-      <c r="Q10" s="3">
-        <v>100</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>2000</v>
       </c>
-      <c r="U10" s="3">
-        <v>100</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
+        <v>100</v>
+      </c>
+      <c r="X10" s="3">
         <v>300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>-100</v>
       </c>
-      <c r="Y10" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1044,10 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1120,14 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1200,14 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,31 +1257,37 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>-100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>1300</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>-2200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>2700</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1269,11 +1315,11 @@
       <c r="K15" s="3">
         <v>500</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
+      <c r="L15" s="3">
+        <v>500</v>
+      </c>
+      <c r="M15" s="3">
+        <v>500</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>8</v>
@@ -1287,11 +1333,11 @@
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1314,8 +1360,14 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1391,170 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F17" s="3">
         <v>4800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>16700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>21600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>21500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>20000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>53200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>3300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>2300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-2400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-1100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-1400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,304 +1581,330 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>2300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>700</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>1900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>2300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-1800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>1200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-2000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-2400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>2000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-1100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>1900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-3200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-1000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
-        <v>100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>1000</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
+        <v>100</v>
+      </c>
+      <c r="S22" s="3">
         <v>200</v>
-      </c>
-      <c r="R22" s="3">
-        <v>300</v>
-      </c>
-      <c r="S22" s="3">
-        <v>400</v>
       </c>
       <c r="T22" s="3">
         <v>300</v>
       </c>
       <c r="U22" s="3">
+        <v>400</v>
+      </c>
+      <c r="V22" s="3">
+        <v>300</v>
+      </c>
+      <c r="W22" s="3">
         <v>200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>600</v>
-      </c>
-      <c r="W22" s="3">
-        <v>400</v>
-      </c>
-      <c r="X22" s="3">
-        <v>300</v>
       </c>
       <c r="Y22" s="3">
         <v>400</v>
       </c>
       <c r="Z22" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB22" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>1500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>1700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-3800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-1400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1846,14 +1938,14 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>8</v>
@@ -1861,18 +1953,18 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="S24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>-1100</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
@@ -1885,8 +1977,14 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2057,174 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>1700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-3800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-1400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-4600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>1700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-3800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-1400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2297,14 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2216,17 +2338,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -2235,28 +2357,34 @@
         <v>0</v>
       </c>
       <c r="T29" s="3">
-        <v>-300</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3">
         <v>-300</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
         <v>-300</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2457,14 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2537,174 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
-        <v>100</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
+        <v>100</v>
+      </c>
+      <c r="P32" s="3">
         <v>-2300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
+        <v>100</v>
+      </c>
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-1900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-2300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>1800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>1700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-4200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-1700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-4700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2777,179 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>1700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-4200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-1700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-4700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2976,10 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,64 +3006,66 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F41" s="3">
         <v>6600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>8800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>6200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>6500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
         <v>100</v>
@@ -2900,36 +3074,42 @@
         <v>100</v>
       </c>
       <c r="X41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z41" s="3">
         <v>300</v>
       </c>
-      <c r="Y41" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -2947,16 +3127,16 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P42" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>100</v>
+      </c>
+      <c r="R42" s="3">
+        <v>100</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>8</v>
@@ -2964,15 +3144,15 @@
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W42" s="3">
         <v>600</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2982,16 +3162,22 @@
       <c r="Z42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -3000,10 +3186,10 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
@@ -3018,46 +3204,52 @@
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>3700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>4400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>5000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>6100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>7800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>200</v>
       </c>
-      <c r="V43" s="3">
-        <v>100</v>
-      </c>
-      <c r="W43" s="3">
-        <v>0</v>
-      </c>
       <c r="X43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
         <v>300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,40 +3322,46 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
+        <v>200</v>
+      </c>
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3">
-        <v>100</v>
+      <c r="L45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -3181,63 +3379,69 @@
         <v>100</v>
       </c>
       <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
         <v>500</v>
       </c>
-      <c r="T45" s="3">
-        <v>100</v>
-      </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
       <c r="V45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
       <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
         <v>300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F46" s="3">
         <v>6800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>9100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>6600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>6700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
-      <c r="K46" s="3">
-        <v>100</v>
-      </c>
       <c r="L46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>200</v>
@@ -3246,63 +3450,69 @@
         <v>300</v>
       </c>
       <c r="P46" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>300</v>
+      </c>
+      <c r="R46" s="3">
         <v>4000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>4500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>5100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>6700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>7900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -3323,37 +3533,43 @@
         <v>0</v>
       </c>
       <c r="Q47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>100</v>
+      </c>
+      <c r="T47" s="3">
         <v>200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>300</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W47" s="3" t="s">
-        <v>8</v>
+      <c r="W47" s="3">
+        <v>0</v>
       </c>
       <c r="X47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y47" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z47" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3408,11 +3624,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>8</v>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>8</v>
@@ -3420,74 +3636,80 @@
       <c r="X48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y48" s="3">
-        <v>100</v>
+      <c r="Y48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="E49" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F49" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G49" s="3">
         <v>5900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>6300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>6800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>7200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>7700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>8100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>8600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>9000</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
       <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
         <v>1900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>3900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>4100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>4200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>4300</v>
       </c>
-      <c r="U49" s="3">
-        <v>100</v>
-      </c>
-      <c r="V49" s="3">
-        <v>100</v>
-      </c>
       <c r="W49" s="3">
         <v>100</v>
       </c>
@@ -3495,13 +3717,19 @@
         <v>100</v>
       </c>
       <c r="Y49" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA49" s="3">
         <v>4000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3802,14 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3882,14 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3722,8 +3962,14 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +4042,94 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F54" s="3">
         <v>12300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>15000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>12900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>13500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>7500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>8100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>8200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>8700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>9200</v>
-      </c>
-      <c r="M54" s="3">
-        <v>300</v>
-      </c>
-      <c r="N54" s="3">
-        <v>200</v>
       </c>
       <c r="O54" s="3">
         <v>300</v>
       </c>
       <c r="P54" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>300</v>
+      </c>
+      <c r="R54" s="3">
         <v>6000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>8600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>9400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>11200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>12500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>4800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4156,10 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,82 +4186,90 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>3500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>5900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>6700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>7500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>1400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>1300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>2900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4015,72 +4283,78 @@
         <v>100</v>
       </c>
       <c r="G58" s="3">
+        <v>100</v>
+      </c>
+      <c r="H58" s="3">
+        <v>100</v>
+      </c>
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
-        <v>100</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3">
-        <v>100</v>
-      </c>
-      <c r="N58" s="3">
-        <v>100</v>
-      </c>
       <c r="O58" s="3">
+        <v>100</v>
+      </c>
+      <c r="P58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q58" s="3">
         <v>3100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>5000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>5800</v>
-      </c>
-      <c r="R58" s="3">
-        <v>3200</v>
-      </c>
-      <c r="S58" s="3">
-        <v>3100</v>
       </c>
       <c r="T58" s="3">
         <v>3200</v>
       </c>
       <c r="U58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="V58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="W58" s="3">
         <v>4400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>4300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>4300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>4600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>4500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="E59" s="3">
         <v>1600</v>
@@ -4089,141 +4363,153 @@
         <v>1800</v>
       </c>
       <c r="G59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2900</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1400</v>
       </c>
       <c r="K59" s="3">
         <v>1300</v>
       </c>
       <c r="L59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N59" s="3">
         <v>2000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>3100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>4300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>3700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>2500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>4400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>1600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F60" s="3">
         <v>2700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>6500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>5600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>11600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>12500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>11100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>11900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>15000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>8000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>9600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>8100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>10300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>9000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4246,10 +4532,10 @@
         <v>100</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -4267,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
@@ -4276,13 +4562,13 @@
         <v>100</v>
       </c>
       <c r="T61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W61" s="3">
         <v>0</v>
@@ -4296,40 +4582,46 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -4338,26 +4630,26 @@
         <v>0</v>
       </c>
       <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
         <v>800</v>
       </c>
-      <c r="Q62" s="3">
-        <v>100</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
+        <v>100</v>
+      </c>
+      <c r="T62" s="3">
         <v>2600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>2600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>2500</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4370,8 +4662,14 @@
       <c r="Z62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4742,14 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4822,14 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4902,94 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F66" s="3">
         <v>2800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>11800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>12000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>13100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>13900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>17000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>7400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>9000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>7500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>7200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>6400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +5016,10 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +5092,14 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5172,14 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5252,14 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5332,94 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-41800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-38200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-33600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-31200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-29200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-27500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-24500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-22800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-21600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-19400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-17200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-16500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-18400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-14400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-14000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-13000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-14200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-13400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-15100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-12700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-13500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-8500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5492,14 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5572,14 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5652,94 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9500</v>
+        <v>3800</v>
       </c>
       <c r="E76" s="3">
-        <v>11900</v>
+        <v>6400</v>
       </c>
       <c r="F76" s="3">
         <v>9500</v>
       </c>
       <c r="G76" s="3">
+        <v>11900</v>
+      </c>
+      <c r="H76" s="3">
+        <v>9500</v>
+      </c>
+      <c r="I76" s="3">
         <v>10200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>3700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>5100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>6300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>5900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-4600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-3400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-3700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-2800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-4600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-6400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-8700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-7200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-6500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5812,179 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>1700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-4200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-1700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-4700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +6011,10 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5645,10 +6043,10 @@
         <v>500</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -5657,10 +6055,10 @@
         <v>0</v>
       </c>
       <c r="P83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R83" s="3">
         <v>100</v>
@@ -5669,7 +6067,7 @@
         <v>100</v>
       </c>
       <c r="T83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U83" s="3">
         <v>100</v>
@@ -5678,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="W83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X83" s="3">
         <v>0</v>
@@ -5689,8 +6087,14 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +6167,14 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6247,14 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6327,14 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6407,14 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6487,94 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-3400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-500</v>
       </c>
       <c r="P89" s="3">
         <v>-300</v>
       </c>
       <c r="Q89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3">
-        <v>100</v>
-      </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>100</v>
+      </c>
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6601,10 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6172,20 +6614,20 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -6199,14 +6641,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -6214,11 +6656,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>8</v>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>8</v>
@@ -6235,8 +6677,14 @@
       <c r="Z91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6757,14 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,13 +6837,19 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -6400,11 +6860,11 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
@@ -6412,11 +6872,11 @@
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -6437,13 +6897,13 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
       <c r="V94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
@@ -6457,8 +6917,14 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6951,10 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +7027,14 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +7107,14 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +7187,14 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,8 +7267,14 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6790,19 +7282,19 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>5000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>9700</v>
-      </c>
-      <c r="H100" s="3">
-        <v>300</v>
-      </c>
-      <c r="I100" s="3">
-        <v>700</v>
       </c>
       <c r="J100" s="3">
         <v>300</v>
@@ -6811,52 +7303,58 @@
         <v>700</v>
       </c>
       <c r="L100" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M100" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="N100" s="3">
         <v>200</v>
       </c>
       <c r="O100" s="3">
+        <v>300</v>
+      </c>
+      <c r="P100" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
-        <v>100</v>
-      </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
       <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-100</v>
       </c>
-      <c r="X100" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA100" s="3">
         <v>200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,35 +7427,41 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>2500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>6300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -6965,42 +7469,48 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CUEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CUEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>CUEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,136 +665,140 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E8" s="3">
         <v>700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
       <c r="G8" s="3">
         <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>200</v>
@@ -803,7 +807,7 @@
         <v>200</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
@@ -812,78 +816,81 @@
         <v>100</v>
       </c>
       <c r="N8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O8" s="3">
         <v>200</v>
       </c>
       <c r="P8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q8" s="3">
         <v>300</v>
       </c>
       <c r="R8" s="3">
+        <v>300</v>
+      </c>
+      <c r="S8" s="3">
         <v>13200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>20600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>20900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>20000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>52100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>500</v>
       </c>
-      <c r="AB8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="3">
         <v>600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>300</v>
       </c>
-      <c r="F9" s="3">
-        <v>100</v>
-      </c>
       <c r="G9" s="3">
         <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
-        <v>100</v>
-      </c>
       <c r="K9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>200</v>
@@ -904,40 +911,43 @@
         <v>200</v>
       </c>
       <c r="R9" s="3">
+        <v>200</v>
+      </c>
+      <c r="S9" s="3">
         <v>13800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>20500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>20700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>19300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>50100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>400</v>
       </c>
-      <c r="AB9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -948,22 +958,22 @@
         <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
         <v>-100</v>
@@ -972,10 +982,10 @@
         <v>-100</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
         <v>100</v>
@@ -984,40 +994,43 @@
         <v>100</v>
       </c>
       <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
         <v>-600</v>
       </c>
-      <c r="S10" s="3">
-        <v>100</v>
-      </c>
       <c r="T10" s="3">
+        <v>100</v>
+      </c>
+      <c r="U10" s="3">
         <v>200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2000</v>
       </c>
-      <c r="W10" s="3">
-        <v>100</v>
-      </c>
       <c r="X10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="3">
         <v>300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>-100</v>
       </c>
-      <c r="AA10" s="3">
-        <v>100</v>
-      </c>
       <c r="AB10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,31 +1283,34 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>-100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1300</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>2700</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1321,8 +1344,8 @@
       <c r="M15" s="3">
         <v>500</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
+      <c r="N15" s="3">
+        <v>500</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>8</v>
@@ -1339,8 +1362,8 @@
       <c r="S15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E17" s="3">
         <v>3800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2700</v>
-      </c>
-      <c r="N17" s="3">
-        <v>800</v>
       </c>
       <c r="O17" s="3">
         <v>800</v>
       </c>
       <c r="P17" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q17" s="3">
         <v>700</v>
       </c>
       <c r="R17" s="3">
+        <v>700</v>
+      </c>
+      <c r="S17" s="3">
         <v>16700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>21600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>21500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>20000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>53200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2600</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-600</v>
       </c>
       <c r="O18" s="3">
         <v>-600</v>
       </c>
       <c r="P18" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="Q18" s="3">
         <v>-400</v>
       </c>
       <c r="R18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S18" s="3">
         <v>-3500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-1100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-2900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,17 +1616,18 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1601,13 +1635,13 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>100</v>
-      </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1616,161 +1650,167 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>700</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>1900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>1200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-3400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
-        <v>100</v>
-      </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1779,132 +1819,138 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>1000</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
       <c r="Q22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
       </c>
       <c r="S22" s="3">
+        <v>100</v>
+      </c>
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>400</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-2200</v>
       </c>
       <c r="N23" s="3">
         <v>-2200</v>
       </c>
       <c r="O23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-3600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1944,30 +1990,30 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>8</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>-1100</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
@@ -1983,8 +2029,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1200</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-2200</v>
       </c>
       <c r="N26" s="3">
         <v>-2200</v>
       </c>
       <c r="O26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-3600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-2200</v>
       </c>
       <c r="N27" s="3">
         <v>-2200</v>
       </c>
       <c r="O27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-3100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2344,14 +2405,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -2363,28 +2424,31 @@
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-300</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X29" s="3">
-        <v>-300</v>
+      <c r="X29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y29" s="3">
         <v>-300</v>
       </c>
       <c r="Z29" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,16 +2610,19 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2561,14 +2631,14 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2576,135 +2646,141 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
-        <v>100</v>
-      </c>
       <c r="P32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
-        <v>100</v>
-      </c>
       <c r="S32" s="3">
+        <v>100</v>
+      </c>
+      <c r="T32" s="3">
         <v>-700</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-1900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-2200</v>
       </c>
       <c r="N33" s="3">
         <v>-2200</v>
       </c>
       <c r="O33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-4700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-2200</v>
       </c>
       <c r="N35" s="3">
         <v>-2200</v>
       </c>
       <c r="O35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-4700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,38 +3094,39 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -3047,19 +3134,19 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>200</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
@@ -3068,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W41" s="3">
         <v>100</v>
@@ -3080,16 +3167,19 @@
         <v>100</v>
       </c>
       <c r="Z41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA41" s="3">
         <v>300</v>
       </c>
-      <c r="AA41" s="3">
-        <v>100</v>
-      </c>
       <c r="AB41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3099,8 +3189,8 @@
       <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -3109,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -3133,13 +3223,13 @@
         <v>0</v>
       </c>
       <c r="Q42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R42" s="3">
         <v>100</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>8</v>
+      <c r="S42" s="3">
+        <v>100</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>8</v>
@@ -3150,12 +3240,12 @@
       <c r="V42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W42" s="3">
+      <c r="W42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X42" s="3">
         <v>600</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y42" s="3" t="s">
         <v>8</v>
       </c>
@@ -3168,19 +3258,22 @@
       <c r="AB42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -3192,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
@@ -3210,46 +3303,49 @@
         <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
       <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>3700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>200</v>
       </c>
-      <c r="X43" s="3">
-        <v>100</v>
-      </c>
       <c r="Y43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z43" s="3">
         <v>0</v>
       </c>
       <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
         <v>300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3424,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3337,34 +3436,34 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
       </c>
       <c r="G45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
       </c>
       <c r="I45" s="3">
+        <v>300</v>
+      </c>
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -3385,13 +3484,13 @@
         <v>100</v>
       </c>
       <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
         <v>500</v>
       </c>
-      <c r="V45" s="3">
-        <v>100</v>
-      </c>
       <c r="W45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
@@ -3400,96 +3499,102 @@
         <v>0</v>
       </c>
       <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
         <v>300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E46" s="3">
         <v>2000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
       <c r="M46" s="3">
         <v>100</v>
       </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>800</v>
-      </c>
-      <c r="X46" s="3">
-        <v>200</v>
       </c>
       <c r="Y46" s="3">
         <v>200</v>
       </c>
       <c r="Z46" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="AA46" s="3">
         <v>600</v>
       </c>
       <c r="AB46" s="3">
+        <v>600</v>
+      </c>
+      <c r="AC46" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3497,13 +3602,13 @@
         <v>900</v>
       </c>
       <c r="E47" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
@@ -3514,8 +3619,8 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -3539,22 +3644,22 @@
         <v>0</v>
       </c>
       <c r="S47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T47" s="3">
+        <v>100</v>
+      </c>
+      <c r="U47" s="3">
         <v>200</v>
-      </c>
-      <c r="U47" s="3">
-        <v>300</v>
       </c>
       <c r="V47" s="3">
         <v>300</v>
       </c>
       <c r="W47" s="3">
-        <v>0</v>
-      </c>
-      <c r="X47" s="3" t="s">
-        <v>8</v>
+        <v>300</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
       </c>
       <c r="Y47" s="3" t="s">
         <v>8</v>
@@ -3562,14 +3667,17 @@
       <c r="Z47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA47" s="3">
-        <v>100</v>
+      <c r="AA47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3630,8 +3738,8 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>8</v>
+      <c r="W48" s="3">
+        <v>0</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>8</v>
@@ -3642,53 +3750,56 @@
       <c r="Z48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA48" s="3">
-        <v>100</v>
-      </c>
-      <c r="AB48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E49" s="3">
         <v>4500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>6800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9000</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
       <c r="P49" s="3">
         <v>0</v>
       </c>
@@ -3696,23 +3807,23 @@
         <v>0</v>
       </c>
       <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
         <v>1900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4300</v>
       </c>
-      <c r="W49" s="3">
-        <v>100</v>
-      </c>
       <c r="X49" s="3">
         <v>100</v>
       </c>
@@ -3723,13 +3834,16 @@
         <v>100</v>
       </c>
       <c r="AA49" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB49" s="3">
         <v>4000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4005,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4088,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E54" s="3">
         <v>7500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>11200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>4800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,88 +4318,92 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1600</v>
-      </c>
-      <c r="N57" s="3">
-        <v>1500</v>
       </c>
       <c r="O57" s="3">
         <v>1500</v>
       </c>
       <c r="P57" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="Q57" s="3">
         <v>1400</v>
       </c>
       <c r="R57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S57" s="3">
         <v>3200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>6700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>7500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4289,227 +4423,236 @@
         <v>100</v>
       </c>
       <c r="I58" s="3">
+        <v>100</v>
+      </c>
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
-        <v>100</v>
-      </c>
       <c r="N58" s="3">
+        <v>100</v>
+      </c>
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3">
-        <v>100</v>
-      </c>
       <c r="P58" s="3">
         <v>100</v>
       </c>
       <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+      <c r="R58" s="3">
         <v>3100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4400</v>
-      </c>
-      <c r="X58" s="3">
-        <v>4300</v>
       </c>
       <c r="Y58" s="3">
         <v>4300</v>
       </c>
       <c r="Z58" s="3">
+        <v>4300</v>
+      </c>
+      <c r="AA58" s="3">
         <v>4600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>4500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3100</v>
-      </c>
-      <c r="T59" s="3">
-        <v>2000</v>
       </c>
       <c r="U59" s="3">
         <v>2000</v>
       </c>
       <c r="V59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="W59" s="3">
         <v>4300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E60" s="3">
         <v>3500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>12500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>11100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>11900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>15000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>9600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>8100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>10300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>9000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4538,7 +4681,7 @@
         <v>100</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -4559,19 +4702,19 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V61" s="3">
         <v>100</v>
       </c>
       <c r="W61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X61" s="3">
         <v>0</v>
@@ -4588,8 +4731,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4614,17 +4760,17 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="3">
-        <v>100</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3">
+        <v>100</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -4636,23 +4782,23 @@
         <v>0</v>
       </c>
       <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
         <v>800</v>
       </c>
-      <c r="S62" s="3">
-        <v>100</v>
-      </c>
       <c r="T62" s="3">
-        <v>2600</v>
+        <v>100</v>
       </c>
       <c r="U62" s="3">
         <v>2600</v>
       </c>
       <c r="V62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="W62" s="3">
         <v>2500</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4668,8 +4814,11 @@
       <c r="AB62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E66" s="3">
         <v>3600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>13100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>17000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>9000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>7500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>7200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>6400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-47300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-45000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-41800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-38200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-33600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-31200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-29200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-27500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-24500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-22800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-21600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-19400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-17200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-16500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-18400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-18100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-14400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-14000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-13000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-14200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-13400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-15100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-12700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-13500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-8500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E76" s="3">
         <v>3800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-4600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-5800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-3400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-3700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-4600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-6400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-8700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-7200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-6500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-2200</v>
       </c>
       <c r="N81" s="3">
         <v>-2200</v>
       </c>
       <c r="O81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-4700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6211,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6049,7 +6248,7 @@
         <v>500</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -6061,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S83" s="3">
         <v>100</v>
@@ -6073,13 +6272,13 @@
         <v>100</v>
       </c>
       <c r="V83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y83" s="3">
         <v>0</v>
@@ -6093,8 +6292,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3400</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-400</v>
       </c>
       <c r="K89" s="3">
         <v>-400</v>
       </c>
       <c r="L89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-300</v>
       </c>
       <c r="P89" s="3">
         <v>-300</v>
       </c>
       <c r="Q89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
       </c>
       <c r="U89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W89" s="3">
+        <v>100</v>
+      </c>
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
       <c r="Z89" s="3">
         <v>0</v>
       </c>
       <c r="AA89" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="AB89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6823,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6614,8 +6835,8 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
@@ -6629,8 +6850,8 @@
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -6647,11 +6868,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -6662,8 +6883,8 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>8</v>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>8</v>
@@ -6683,8 +6904,11 @@
       <c r="AB91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,17 +7070,20 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-600</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -6866,8 +7096,8 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -6878,8 +7108,8 @@
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -6903,10 +7133,10 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X94" s="3">
         <v>0</v>
@@ -6923,8 +7153,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,13 +7516,16 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -7288,73 +7534,76 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>5000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>9700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
       <c r="T100" s="3">
         <v>100</v>
       </c>
       <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>300</v>
-      </c>
-      <c r="X100" s="3">
-        <v>-100</v>
       </c>
       <c r="Y100" s="3">
         <v>-100</v>
       </c>
       <c r="Z100" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AA100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB100" s="3">
         <v>200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,38 +7682,41 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -7475,42 +7727,45 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
-        <v>100</v>
-      </c>
       <c r="AA102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CUEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CUEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>CUEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,238 +665,251 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>800</v>
+      </c>
+      <c r="F8" s="3">
         <v>1100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
-      <c r="H8" s="3">
-        <v>100</v>
-      </c>
       <c r="I8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>200</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N8" s="3">
         <v>100</v>
       </c>
       <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>13200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>20600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>20900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>20000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>52100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1100</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>500</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>400</v>
       </c>
       <c r="AB8" s="3">
         <v>500</v>
       </c>
       <c r="AC8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>500</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>600</v>
       </c>
       <c r="F9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>600</v>
+      </c>
+      <c r="H9" s="3">
         <v>300</v>
       </c>
-      <c r="G9" s="3">
-        <v>100</v>
-      </c>
-      <c r="H9" s="3">
-        <v>100</v>
-      </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <v>200</v>
       </c>
       <c r="M9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
         <v>200</v>
@@ -914,123 +927,135 @@
         <v>200</v>
       </c>
       <c r="S9" s="3">
+        <v>200</v>
+      </c>
+      <c r="T9" s="3">
+        <v>200</v>
+      </c>
+      <c r="U9" s="3">
         <v>13800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>20500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>20700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>19300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>50100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>400</v>
       </c>
-      <c r="AC9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>100</v>
-      </c>
       <c r="L10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
         <v>-100</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R10" s="3">
         <v>100</v>
       </c>
       <c r="S10" s="3">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
+        <v>100</v>
+      </c>
+      <c r="U10" s="3">
         <v>-600</v>
       </c>
-      <c r="T10" s="3">
-        <v>100</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
+        <v>100</v>
+      </c>
+      <c r="W10" s="3">
         <v>200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>2000</v>
       </c>
-      <c r="X10" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA10" s="3">
         <v>300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>-100</v>
       </c>
-      <c r="AB10" s="3">
-        <v>100</v>
-      </c>
-      <c r="AC10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,8 +1085,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1143,8 +1170,14 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,31 +1259,37 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>3600</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1286,36 +1325,42 @@
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>-100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>1300</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>2700</v>
       </c>
-      <c r="AB14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>500</v>
@@ -1347,11 +1392,11 @@
       <c r="N15" s="3">
         <v>500</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
+      <c r="O15" s="3">
+        <v>500</v>
+      </c>
+      <c r="P15" s="3">
+        <v>500</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>8</v>
@@ -1365,11 +1410,11 @@
       <c r="T15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="U15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -1392,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1471,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F17" s="3">
         <v>3400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>3800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>4000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>4800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>16700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>21600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>21500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>20000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>53200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>2500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>1100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>3300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>2300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-3100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-3600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-4700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-2600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-3500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-1000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-600</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-1100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-2900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-1800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,13 +1682,15 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>-100</v>
@@ -1632,325 +1699,349 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>2300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>700</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>1900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>2300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>1200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-2700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-3200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-4200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-2000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-2400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-3500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>2000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-1100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>1900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-3200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-3400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>-500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
-        <v>100</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>1000</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T22" s="3">
+        <v>100</v>
+      </c>
+      <c r="U22" s="3">
+        <v>100</v>
+      </c>
+      <c r="V22" s="3">
         <v>200</v>
-      </c>
-      <c r="U22" s="3">
-        <v>300</v>
-      </c>
-      <c r="V22" s="3">
-        <v>400</v>
       </c>
       <c r="W22" s="3">
         <v>300</v>
       </c>
       <c r="X22" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z22" s="3">
         <v>200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>600</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>400</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>300</v>
       </c>
       <c r="AB22" s="3">
         <v>400</v>
       </c>
       <c r="AC22" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE22" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-3200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-3600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-4600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>1900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-3700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-1000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>1500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-1500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>1700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-3600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1993,14 +2084,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>8</v>
@@ -2008,18 +2099,18 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
+      <c r="V24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>-1100</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
       <c r="Z24" s="3">
         <v>0</v>
       </c>
@@ -2032,8 +2123,14 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-3200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-3600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-4600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-3700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-1000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>1500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>1700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-3600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-3200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-3600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-4600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-3700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-1000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>1500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>1700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-3100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2408,17 +2529,17 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
@@ -2427,28 +2548,34 @@
         <v>0</v>
       </c>
       <c r="W29" s="3">
-        <v>-300</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
       </c>
       <c r="Y29" s="3">
         <v>-300</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-300</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC29" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,13 +2746,19 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>100</v>
@@ -2628,159 +2767,171 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>100</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
+        <v>100</v>
+      </c>
+      <c r="S32" s="3">
         <v>-2300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
-        <v>100</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
+        <v>100</v>
+      </c>
+      <c r="V32" s="3">
         <v>-700</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-1900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>1800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-3200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-3600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-4600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-3700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-1000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>1500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>1700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-4200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-1700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-4700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-3200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-3600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-4600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-3700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-1000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>1500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>1700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-4200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-1700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-4700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,73 +3266,75 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>500</v>
+      </c>
+      <c r="F41" s="3">
         <v>2100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>4300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>6600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>8800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>6200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>6500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
       <c r="W41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="3">
         <v>100</v>
@@ -3170,16 +3343,22 @@
         <v>100</v>
       </c>
       <c r="AA41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC41" s="3">
         <v>300</v>
       </c>
-      <c r="AB41" s="3">
-        <v>100</v>
-      </c>
-      <c r="AC41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3192,23 +3371,23 @@
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
       <c r="L42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -3226,16 +3405,16 @@
         <v>0</v>
       </c>
       <c r="R42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S42" s="3">
-        <v>100</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U42" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>100</v>
+      </c>
+      <c r="U42" s="3">
+        <v>100</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>8</v>
@@ -3243,15 +3422,15 @@
       <c r="W42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X42" s="3">
+      <c r="X42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z42" s="3">
         <v>600</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA42" s="3" t="s">
         <v>8</v>
       </c>
@@ -3261,8 +3440,14 @@
       <c r="AC42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3270,16 +3455,16 @@
         <v>300</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -3288,10 +3473,10 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
@@ -3306,46 +3491,52 @@
         <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
         <v>3700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>4400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>5000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>6100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>7800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>200</v>
       </c>
-      <c r="Y43" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z43" s="3">
-        <v>0</v>
-      </c>
       <c r="AA43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
         <v>300</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,8 +3618,14 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3436,40 +3633,40 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3">
-        <v>100</v>
+      <c r="O45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
@@ -3487,72 +3684,78 @@
         <v>100</v>
       </c>
       <c r="V45" s="3">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
+        <v>100</v>
+      </c>
+      <c r="X45" s="3">
         <v>500</v>
       </c>
-      <c r="W45" s="3">
-        <v>100</v>
-      </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
       <c r="Y45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z45" s="3">
         <v>0</v>
       </c>
       <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
         <v>300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>200</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>700</v>
+      </c>
+      <c r="F46" s="3">
         <v>2400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>6800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>9100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>6600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>6700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
-      <c r="N46" s="3">
-        <v>100</v>
-      </c>
       <c r="O46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>200</v>
@@ -3561,60 +3764,66 @@
         <v>300</v>
       </c>
       <c r="S46" s="3">
+        <v>200</v>
+      </c>
+      <c r="T46" s="3">
+        <v>300</v>
+      </c>
+      <c r="U46" s="3">
         <v>4000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>4500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>5100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>6700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>7900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E47" s="3">
+        <v>800</v>
+      </c>
+      <c r="F47" s="3">
         <v>900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>900</v>
       </c>
-      <c r="F47" s="3">
-        <v>100</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
+      <c r="H47" s="3">
+        <v>100</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -3622,11 +3831,11 @@
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -3647,37 +3856,43 @@
         <v>0</v>
       </c>
       <c r="T47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>100</v>
+      </c>
+      <c r="W47" s="3">
         <v>200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>300</v>
       </c>
-      <c r="X47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z47" s="3" t="s">
-        <v>8</v>
+      <c r="Z47" s="3">
+        <v>0</v>
       </c>
       <c r="AA47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB47" s="3">
-        <v>100</v>
-      </c>
-      <c r="AC47" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3741,11 +3956,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y48" s="3" t="s">
-        <v>8</v>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
       </c>
       <c r="Z48" s="3" t="s">
         <v>8</v>
@@ -3753,83 +3968,89 @@
       <c r="AA48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB48" s="3">
-        <v>100</v>
+      <c r="AB48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AC48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
         <v>4100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>4500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>5000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>5400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>5900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>6300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>6800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>7200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>7700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>8100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>8600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>9000</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
       <c r="R49" s="3">
         <v>0</v>
       </c>
       <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
         <v>1900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>3900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>4100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>4200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>4300</v>
       </c>
-      <c r="X49" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>100</v>
-      </c>
       <c r="Z49" s="3">
         <v>100</v>
       </c>
@@ -3837,13 +4058,19 @@
         <v>100</v>
       </c>
       <c r="AB49" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD49" s="3">
         <v>4000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,8 +4241,14 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4091,8 +4330,14 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F54" s="3">
         <v>7400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>7500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>9700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>12300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>15000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>12900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>13500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>7500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>8100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>8200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>8700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>9200</v>
-      </c>
-      <c r="P54" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>200</v>
       </c>
       <c r="R54" s="3">
         <v>300</v>
       </c>
       <c r="S54" s="3">
+        <v>200</v>
+      </c>
+      <c r="T54" s="3">
+        <v>300</v>
+      </c>
+      <c r="U54" s="3">
         <v>6000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>8600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>9400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>11200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>12500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>4800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,8 +4578,10 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4328,82 +4589,88 @@
         <v>1200</v>
       </c>
       <c r="E57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G57" s="3">
         <v>1900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>3200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>3500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>5900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>6700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>7500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>1700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>1600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>1400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>1300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>2900</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4426,81 +4693,87 @@
         <v>100</v>
       </c>
       <c r="J58" s="3">
+        <v>100</v>
+      </c>
+      <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="N58" s="3">
-        <v>100</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>100</v>
-      </c>
       <c r="R58" s="3">
+        <v>100</v>
+      </c>
+      <c r="S58" s="3">
+        <v>100</v>
+      </c>
+      <c r="T58" s="3">
         <v>3100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>5000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>5800</v>
-      </c>
-      <c r="U58" s="3">
-        <v>3200</v>
-      </c>
-      <c r="V58" s="3">
-        <v>3100</v>
       </c>
       <c r="W58" s="3">
         <v>3200</v>
       </c>
       <c r="X58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Z58" s="3">
         <v>4400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>4300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>4300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>4600</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>4500</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AE58" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
         <v>1400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1800</v>
       </c>
       <c r="H59" s="3">
         <v>1600</v>
@@ -4509,150 +4782,162 @@
         <v>1800</v>
       </c>
       <c r="J59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2900</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1300</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1400</v>
       </c>
       <c r="N59" s="3">
         <v>1300</v>
       </c>
       <c r="O59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q59" s="3">
         <v>2000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>3400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>3100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>2000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>2000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>4300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>1900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>3700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>2500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>4400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>1600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F60" s="3">
         <v>2700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>6500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>5600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>11600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>12500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>11100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>11900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>15000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>8000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>9600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>8100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>10300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>9000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4684,10 +4969,10 @@
         <v>100</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -4705,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U61" s="3">
         <v>0</v>
@@ -4714,13 +4999,13 @@
         <v>100</v>
       </c>
       <c r="W61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z61" s="3">
         <v>0</v>
@@ -4734,8 +5019,14 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4763,20 +5054,20 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -4785,26 +5076,26 @@
         <v>0</v>
       </c>
       <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
         <v>800</v>
       </c>
-      <c r="T62" s="3">
-        <v>100</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
+        <v>100</v>
+      </c>
+      <c r="W62" s="3">
         <v>2600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>2600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>2500</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4817,8 +5108,14 @@
       <c r="AC62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F66" s="3">
         <v>2800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>4900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>11800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>12000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>13100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>13900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>17000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>7400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>9000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>7500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>7200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>6400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-52800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-47300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-45000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-41800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-38200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-33600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-31200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-29200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-27500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-24500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-22800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-21600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-19400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-17200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-16500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-18400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-18100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-14400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-14000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-13000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-14200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-13400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-15100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-12700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-13500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-8500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F76" s="3">
         <v>4600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>3800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>6400</v>
-      </c>
-      <c r="G76" s="3">
-        <v>9500</v>
-      </c>
-      <c r="H76" s="3">
-        <v>11900</v>
       </c>
       <c r="I76" s="3">
         <v>9500</v>
       </c>
       <c r="J76" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K76" s="3">
+        <v>9500</v>
+      </c>
+      <c r="L76" s="3">
         <v>10200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>5100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>6300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>5900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-4600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-5800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-3400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-3700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-2800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-4600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-6400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-8700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-7200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>-6500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-3200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-3600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-4600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-3700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-1000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>1500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>1700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-4200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-1700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-4700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,13 +6607,15 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>500</v>
@@ -6251,10 +6648,10 @@
         <v>500</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="P83" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -6263,10 +6660,10 @@
         <v>0</v>
       </c>
       <c r="S83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U83" s="3">
         <v>100</v>
@@ -6275,7 +6672,7 @@
         <v>100</v>
       </c>
       <c r="W83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X83" s="3">
         <v>100</v>
@@ -6284,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="Z83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA83" s="3">
         <v>0</v>
@@ -6295,8 +6692,14 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +7137,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-2100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-2500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-3400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-500</v>
       </c>
       <c r="S89" s="3">
         <v>-300</v>
       </c>
       <c r="T89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-      <c r="W89" s="3">
-        <v>100</v>
-      </c>
       <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
       <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
         <v>-300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7263,10 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6838,26 +7279,26 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -6871,14 +7312,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -6886,11 +7327,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X91" s="3" t="s">
-        <v>8</v>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>8</v>
@@ -6907,8 +7348,14 @@
       <c r="AC91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,8 +7526,14 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7082,14 +7541,14 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -7099,11 +7558,11 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>8</v>
@@ -7111,11 +7570,11 @@
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -7136,13 +7595,13 @@
         <v>0</v>
       </c>
       <c r="W94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
       <c r="Y94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z94" s="3">
         <v>0</v>
@@ -7156,8 +7615,14 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,37 +8004,43 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>2700</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>5000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>9700</v>
-      </c>
-      <c r="K100" s="3">
-        <v>300</v>
-      </c>
-      <c r="L100" s="3">
-        <v>700</v>
       </c>
       <c r="M100" s="3">
         <v>300</v>
@@ -7558,52 +8049,58 @@
         <v>700</v>
       </c>
       <c r="O100" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P100" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="Q100" s="3">
         <v>200</v>
       </c>
       <c r="R100" s="3">
+        <v>300</v>
+      </c>
+      <c r="S100" s="3">
+        <v>200</v>
+      </c>
+      <c r="T100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
-        <v>100</v>
-      </c>
-      <c r="U100" s="3">
-        <v>100</v>
-      </c>
       <c r="V100" s="3">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
         <v>-100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-100</v>
       </c>
-      <c r="AA100" s="3">
-        <v>100</v>
-      </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD100" s="3">
         <v>200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,44 +8182,50 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-2300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-2100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>2500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>6300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -7730,42 +8233,48 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
-      <c r="AA102" s="3">
-        <v>100</v>
-      </c>
-      <c r="AB102" s="3">
-        <v>0</v>
-      </c>
       <c r="AC102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CUEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CUEN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,156 +665,160 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>100</v>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
         <v>800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
       <c r="J8" s="3">
         <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>200</v>
@@ -823,7 +827,7 @@
         <v>200</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O8" s="3">
         <v>100</v>
@@ -832,87 +836,90 @@
         <v>100</v>
       </c>
       <c r="Q8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R8" s="3">
         <v>200</v>
       </c>
       <c r="S8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T8" s="3">
         <v>300</v>
       </c>
       <c r="U8" s="3">
+        <v>300</v>
+      </c>
+      <c r="V8" s="3">
         <v>13200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>20600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>20900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>20000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>52100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>500</v>
       </c>
-      <c r="AE8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
+        <v>100</v>
+      </c>
+      <c r="F9" s="3">
         <v>600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>300</v>
       </c>
-      <c r="I9" s="3">
-        <v>100</v>
-      </c>
       <c r="J9" s="3">
         <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
-        <v>100</v>
-      </c>
       <c r="N9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
         <v>200</v>
@@ -933,52 +940,55 @@
         <v>200</v>
       </c>
       <c r="U9" s="3">
+        <v>200</v>
+      </c>
+      <c r="V9" s="3">
         <v>13800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>20500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>20700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>19300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>50100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>500</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>400</v>
       </c>
-      <c r="AE9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
       <c r="G10" s="3">
         <v>100</v>
       </c>
@@ -986,22 +996,22 @@
         <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O10" s="3">
         <v>-100</v>
@@ -1010,10 +1020,10 @@
         <v>-100</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S10" s="3">
         <v>100</v>
@@ -1022,40 +1032,43 @@
         <v>100</v>
       </c>
       <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
         <v>-600</v>
       </c>
-      <c r="V10" s="3">
-        <v>100</v>
-      </c>
       <c r="W10" s="3">
+        <v>100</v>
+      </c>
+      <c r="X10" s="3">
         <v>200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2000</v>
       </c>
-      <c r="Z10" s="3">
-        <v>100</v>
-      </c>
       <c r="AA10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB10" s="3">
         <v>300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>-100</v>
       </c>
-      <c r="AD10" s="3">
-        <v>100</v>
-      </c>
       <c r="AE10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,20 +1282,23 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>3600</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1291,8 +1311,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1331,31 +1351,34 @@
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>-100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1300</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
         <v>0</v>
       </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>-2200</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>2700</v>
       </c>
-      <c r="AD14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AE14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1363,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
         <v>500</v>
@@ -1398,8 +1421,8 @@
       <c r="P15" s="3">
         <v>500</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>8</v>
+      <c r="Q15" s="3">
+        <v>500</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>8</v>
@@ -1416,8 +1439,8 @@
       <c r="V15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
+      <c r="W15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,97 +1499,101 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>900</v>
       </c>
       <c r="E17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F17" s="3">
         <v>6100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2700</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>800</v>
       </c>
       <c r="R17" s="3">
         <v>800</v>
       </c>
       <c r="S17" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T17" s="3">
         <v>700</v>
       </c>
       <c r="U17" s="3">
+        <v>700</v>
+      </c>
+      <c r="V17" s="3">
         <v>16700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>21600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>21500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>20000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>53200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>3300</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>2300</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1571,88 +1601,91 @@
         <v>8</v>
       </c>
       <c r="E18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2600</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-600</v>
       </c>
       <c r="R18" s="3">
         <v>-600</v>
       </c>
       <c r="S18" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="T18" s="3">
         <v>-400</v>
       </c>
       <c r="U18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V18" s="3">
         <v>-3500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-600</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
       <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-1400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-2900</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-1800</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1717,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1693,17 +1727,17 @@
         <v>8</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1711,13 +1745,13 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>100</v>
-      </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1726,55 +1760,58 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>700</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>1900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-500</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>1200</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1782,88 +1819,91 @@
         <v>8</v>
       </c>
       <c r="E21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-5000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-3500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-3200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-3400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-500</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1876,29 +1916,29 @@
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
-        <v>100</v>
-      </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1907,141 +1947,147 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>1000</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
       <c r="T22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U22" s="3">
         <v>100</v>
       </c>
       <c r="V22" s="3">
+        <v>100</v>
+      </c>
+      <c r="W22" s="3">
         <v>200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>600</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>400</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>300</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>400</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-2200</v>
       </c>
       <c r="Q23" s="3">
         <v>-2200</v>
       </c>
       <c r="R23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-3800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-3600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-1000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2090,30 +2136,30 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>8</v>
+      <c r="S24" s="3">
+        <v>0</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W24" s="3">
-        <v>0</v>
+      <c r="U24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
       <c r="AA24" s="3">
         <v>0</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-1400</v>
       </c>
       <c r="E26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-5400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1200</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-2200</v>
       </c>
       <c r="Q26" s="3">
         <v>-2200</v>
       </c>
       <c r="R26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-3700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-3800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-3600</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-1000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-1400</v>
       </c>
       <c r="E27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-5400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1200</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-2200</v>
       </c>
       <c r="Q27" s="3">
         <v>-2200</v>
       </c>
       <c r="R27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-3700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-3800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-3100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-1000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2535,14 +2596,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
@@ -2554,28 +2615,31 @@
         <v>0</v>
       </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-300</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA29" s="3">
-        <v>-300</v>
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB29" s="3">
         <v>-300</v>
       </c>
       <c r="AC29" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AD29" s="3">
         <v>-1600</v>
       </c>
-      <c r="AD29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2819,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2761,16 +2831,16 @@
         <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -2779,14 +2849,14 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>100</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2794,144 +2864,150 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>500</v>
       </c>
-      <c r="R32" s="3">
-        <v>100</v>
-      </c>
       <c r="S32" s="3">
+        <v>100</v>
+      </c>
+      <c r="T32" s="3">
         <v>-2300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
-        <v>100</v>
-      </c>
       <c r="V32" s="3">
+        <v>100</v>
+      </c>
+      <c r="W32" s="3">
         <v>-700</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>1800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>500</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-1200</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-1400</v>
       </c>
       <c r="E33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-5400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-2200</v>
       </c>
       <c r="Q33" s="3">
         <v>-2200</v>
       </c>
       <c r="R33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-4200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-1700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-4700</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-1000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-1400</v>
       </c>
       <c r="E35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-5400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-2200</v>
       </c>
       <c r="Q35" s="3">
         <v>-2200</v>
       </c>
       <c r="R35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-4200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-1700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-4700</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-1000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,47 +3354,48 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>3300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
@@ -3316,19 +3403,19 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
         <v>200</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
@@ -3337,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="Y41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="3">
         <v>100</v>
@@ -3349,16 +3436,19 @@
         <v>100</v>
       </c>
       <c r="AC41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD41" s="3">
         <v>300</v>
       </c>
-      <c r="AD41" s="3">
-        <v>100</v>
-      </c>
       <c r="AE41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3377,8 +3467,8 @@
       <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -3387,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -3411,13 +3501,13 @@
         <v>0</v>
       </c>
       <c r="T42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U42" s="3">
         <v>100</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>8</v>
+      <c r="V42" s="3">
+        <v>100</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>8</v>
@@ -3428,12 +3518,12 @@
       <c r="Y42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="Z42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA42" s="3">
         <v>600</v>
       </c>
-      <c r="AA42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB42" s="3" t="s">
         <v>8</v>
       </c>
@@ -3446,8 +3536,11 @@
       <c r="AE42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3455,19 +3548,19 @@
         <v>300</v>
       </c>
       <c r="E43" s="3">
+        <v>300</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
-        <v>100</v>
-      </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -3479,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
@@ -3497,46 +3590,49 @@
         <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
       </c>
       <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
         <v>3700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>6100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>7800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>200</v>
       </c>
-      <c r="AA43" s="3">
-        <v>100</v>
-      </c>
       <c r="AB43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC43" s="3">
         <v>0</v>
       </c>
       <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="3">
         <v>300</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,52 +3720,55 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>300</v>
       </c>
       <c r="L45" s="3">
+        <v>300</v>
+      </c>
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
@@ -3690,13 +3789,13 @@
         <v>100</v>
       </c>
       <c r="X45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y45" s="3">
         <v>500</v>
       </c>
-      <c r="Y45" s="3">
-        <v>100</v>
-      </c>
       <c r="Z45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA45" s="3">
         <v>0</v>
@@ -3705,128 +3804,134 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
         <v>300</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>200</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
         <v>3700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
-        <v>100</v>
-      </c>
       <c r="P46" s="3">
         <v>100</v>
       </c>
       <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>6700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>7900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>800</v>
-      </c>
-      <c r="AA46" s="3">
-        <v>200</v>
       </c>
       <c r="AB46" s="3">
         <v>200</v>
       </c>
       <c r="AC46" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="AD46" s="3">
         <v>600</v>
       </c>
       <c r="AE46" s="3">
+        <v>600</v>
+      </c>
+      <c r="AF46" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>800</v>
-      </c>
-      <c r="F47" s="3">
-        <v>900</v>
       </c>
       <c r="G47" s="3">
         <v>900</v>
       </c>
       <c r="H47" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -3837,8 +3942,8 @@
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -3862,22 +3967,22 @@
         <v>0</v>
       </c>
       <c r="V47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W47" s="3">
+        <v>100</v>
+      </c>
+      <c r="X47" s="3">
         <v>200</v>
-      </c>
-      <c r="X47" s="3">
-        <v>300</v>
       </c>
       <c r="Y47" s="3">
         <v>300</v>
       </c>
       <c r="Z47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="3" t="s">
-        <v>8</v>
+        <v>300</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
       </c>
       <c r="AB47" s="3" t="s">
         <v>8</v>
@@ -3885,14 +3990,17 @@
       <c r="AC47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD47" s="3">
-        <v>100</v>
+      <c r="AD47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AE47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3962,8 +4070,8 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>8</v>
+      <c r="Z48" s="3">
+        <v>0</v>
       </c>
       <c r="AA48" s="3" t="s">
         <v>8</v>
@@ -3974,62 +4082,65 @@
       <c r="AC48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD48" s="3">
-        <v>100</v>
-      </c>
-      <c r="AE48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
       </c>
       <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
         <v>4100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>9000</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
-      </c>
       <c r="S49" s="3">
         <v>0</v>
       </c>
@@ -4037,23 +4148,23 @@
         <v>0</v>
       </c>
       <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
         <v>1900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>4300</v>
       </c>
-      <c r="Z49" s="3">
-        <v>100</v>
-      </c>
       <c r="AA49" s="3">
         <v>100</v>
       </c>
@@ -4064,13 +4175,16 @@
         <v>100</v>
       </c>
       <c r="AD49" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE49" s="3">
         <v>4000</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E54" s="3">
         <v>5200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>15000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>11200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>12500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>4800</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,13 +4710,14 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E57" s="3">
         <v>1200</v>
@@ -4595,82 +4726,85 @@
         <v>1200</v>
       </c>
       <c r="G57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H57" s="3">
         <v>1900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1600</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>1500</v>
       </c>
       <c r="R57" s="3">
         <v>1500</v>
       </c>
       <c r="S57" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="T57" s="3">
         <v>1400</v>
       </c>
       <c r="U57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V57" s="3">
         <v>3200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>5900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>6700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>7500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1300</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>2900</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4699,156 +4833,162 @@
         <v>100</v>
       </c>
       <c r="L58" s="3">
+        <v>100</v>
+      </c>
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3">
-        <v>100</v>
-      </c>
       <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+      <c r="R58" s="3">
         <v>400</v>
       </c>
-      <c r="R58" s="3">
-        <v>100</v>
-      </c>
       <c r="S58" s="3">
         <v>100</v>
       </c>
       <c r="T58" s="3">
+        <v>100</v>
+      </c>
+      <c r="U58" s="3">
         <v>3100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>4400</v>
-      </c>
-      <c r="AA58" s="3">
-        <v>4300</v>
       </c>
       <c r="AB58" s="3">
         <v>4300</v>
       </c>
       <c r="AC58" s="3">
+        <v>4300</v>
+      </c>
+      <c r="AD58" s="3">
         <v>4600</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>4500</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3100</v>
-      </c>
-      <c r="W59" s="3">
-        <v>2000</v>
       </c>
       <c r="X59" s="3">
         <v>2000</v>
       </c>
       <c r="Y59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Z59" s="3">
         <v>4300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>4400</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1600</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4856,88 +4996,91 @@
         <v>2200</v>
       </c>
       <c r="E60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F60" s="3">
         <v>2100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>11600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>12500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>11100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>11900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>15000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>8000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>9600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>8100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>10300</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>9000</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4975,7 +5118,7 @@
         <v>100</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -4996,19 +5139,19 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y61" s="3">
         <v>100</v>
       </c>
       <c r="Z61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA61" s="3">
         <v>0</v>
@@ -5025,8 +5168,11 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5060,17 +5206,17 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O62" s="3">
-        <v>100</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -5082,23 +5228,23 @@
         <v>0</v>
       </c>
       <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
         <v>800</v>
       </c>
-      <c r="V62" s="3">
-        <v>100</v>
-      </c>
       <c r="W62" s="3">
-        <v>2600</v>
+        <v>100</v>
       </c>
       <c r="X62" s="3">
         <v>2600</v>
       </c>
       <c r="Y62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Z62" s="3">
         <v>2500</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA62" s="3" t="s">
         <v>8</v>
       </c>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,8 +5536,11 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5390,88 +5548,91 @@
         <v>2300</v>
       </c>
       <c r="E66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F66" s="3">
         <v>2200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>11800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>12000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>13100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>13900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>17000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>7400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>9000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>7500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>7200</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>6400</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-55900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-54400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-52800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-47300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-45000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-41800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-38200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-33600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-31200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-29200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-27500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-24500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-22800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-21600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-19400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-17200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-16500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-18400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-18100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-14400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-14000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-13000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-14200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-13400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-15100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-12700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-13500</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-8500</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E76" s="3">
         <v>2900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-4600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-5800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-3400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-3700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-4600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-6400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-8700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-7200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-6500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-1600</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-1400</v>
       </c>
       <c r="E81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-5400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-2200</v>
       </c>
       <c r="Q81" s="3">
         <v>-2200</v>
       </c>
       <c r="R81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-4200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-1700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-4700</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-1000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6618,7 +6817,7 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
         <v>500</v>
@@ -6654,7 +6853,7 @@
         <v>500</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -6666,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="U83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V83" s="3">
         <v>100</v>
@@ -6678,13 +6877,13 @@
         <v>100</v>
       </c>
       <c r="Y83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB83" s="3">
         <v>0</v>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3400</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-400</v>
       </c>
       <c r="N89" s="3">
         <v>-400</v>
       </c>
       <c r="O89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-300</v>
       </c>
       <c r="S89" s="3">
         <v>-300</v>
       </c>
       <c r="T89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-100</v>
       </c>
       <c r="W89" s="3">
         <v>-100</v>
       </c>
       <c r="X89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z89" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-100</v>
       </c>
-      <c r="AB89" s="3">
-        <v>0</v>
-      </c>
       <c r="AC89" s="3">
         <v>0</v>
       </c>
       <c r="AD89" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="AE89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,13 +7485,14 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -7291,8 +7512,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
@@ -7300,8 +7521,8 @@
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -7318,11 +7539,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -7333,8 +7554,8 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>8</v>
+      <c r="Y91" s="3">
+        <v>0</v>
       </c>
       <c r="Z91" s="3" t="s">
         <v>8</v>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,13 +7759,16 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-2200</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -7547,11 +7777,11 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -7564,8 +7794,8 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>8</v>
@@ -7576,8 +7806,8 @@
       <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -7601,10 +7831,10 @@
         <v>0</v>
       </c>
       <c r="Y94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA94" s="3">
         <v>0</v>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,23 +8253,26 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>4300</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>2700</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -8034,73 +8280,76 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>5000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>9700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="V100" s="3">
-        <v>100</v>
-      </c>
       <c r="W100" s="3">
         <v>100</v>
       </c>
       <c r="X100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>300</v>
-      </c>
-      <c r="AA100" s="3">
-        <v>-100</v>
       </c>
       <c r="AB100" s="3">
         <v>-100</v>
       </c>
       <c r="AC100" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AD100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE100" s="3">
         <v>200</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,47 +8437,50 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E102" s="3">
         <v>2900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -8239,42 +8491,45 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W102" s="3">
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-100</v>
       </c>
-      <c r="AC102" s="3">
-        <v>100</v>
-      </c>
       <c r="AD102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>100</v>
       </c>
     </row>
